--- a/LLY.xlsx
+++ b/LLY.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EEFB12-873B-45BC-8051-D51A16C77823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE304417-56BB-47BF-98C1-C8063542BD5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="795" windowWidth="22200" windowHeight="14685" activeTab="3" xr2:uid="{0B35871E-4663-488C-B05C-A1B5B9C863D7}"/>
+    <workbookView xWindow="1785" yWindow="750" windowWidth="22200" windowHeight="14205" activeTab="4" xr2:uid="{0B35871E-4663-488C-B05C-A1B5B9C863D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="18" r:id="rId1"/>
@@ -58,7 +58,7 @@
     <author>tc={870D49C2-D2BC-4507-9362-BAC854248C6B}</author>
   </authors>
   <commentList>
-    <comment ref="W20" authorId="0" shapeId="0" xr:uid="{870D49C2-D2BC-4507-9362-BAC854248C6B}">
+    <comment ref="W22" authorId="0" shapeId="0" xr:uid="{870D49C2-D2BC-4507-9362-BAC854248C6B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="422">
   <si>
     <t>Price</t>
   </si>
@@ -1169,6 +1169,174 @@
   </si>
   <si>
     <t>Disposition</t>
+  </si>
+  <si>
+    <t>galcanezumab-gnlm</t>
+  </si>
+  <si>
+    <t>pirtobrutinib</t>
+  </si>
+  <si>
+    <t>selpercatinib</t>
+  </si>
+  <si>
+    <t>baricitinib</t>
+  </si>
+  <si>
+    <t>mirikizumab-mrkz</t>
+  </si>
+  <si>
+    <t>lasmiditan</t>
+  </si>
+  <si>
+    <t>insulin lispro</t>
+  </si>
+  <si>
+    <t>donanemab-azbt</t>
+  </si>
+  <si>
+    <t>lebrikizumab-lbkz</t>
+  </si>
+  <si>
+    <t>tadalafil</t>
+  </si>
+  <si>
+    <t>pemetrexed</t>
+  </si>
+  <si>
+    <t>florbetapir</t>
+  </si>
+  <si>
+    <t>glucagon</t>
+  </si>
+  <si>
+    <t>insulin glargine</t>
+  </si>
+  <si>
+    <t>ramucirumab</t>
+  </si>
+  <si>
+    <t>cetuximab</t>
+  </si>
+  <si>
+    <t>teriparatide</t>
+  </si>
+  <si>
+    <t>empagliflozin/linagliptin</t>
+  </si>
+  <si>
+    <t>somatropin</t>
+  </si>
+  <si>
+    <t>insulin isophane</t>
+  </si>
+  <si>
+    <t>empagliflozin</t>
+  </si>
+  <si>
+    <t>linagliptin I metformin HCI</t>
+  </si>
+  <si>
+    <t>empagliflozin/metformin HCI</t>
+  </si>
+  <si>
+    <t>ixekizumab</t>
+  </si>
+  <si>
+    <t>flortaucipir F 18</t>
+  </si>
+  <si>
+    <t>linagliptin</t>
+  </si>
+  <si>
+    <t>abecmaciclib</t>
+  </si>
+  <si>
+    <t>olanzapine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olumiant </t>
+  </si>
+  <si>
+    <t>Retevmo</t>
+  </si>
+  <si>
+    <t>Jaypirca</t>
+  </si>
+  <si>
+    <t>Omvoh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reyvow </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lyumjev </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kisunla </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ebglyss </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adcirca </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alimta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AmyviD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baqsimi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basaglar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyramza </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erbitux </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forteo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glyxambi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Humalog </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Humatrope </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Humulin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jardiance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jentadeuto </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Synjardy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tauvid </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tradjenta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trulicity </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verzenio </t>
+  </si>
+  <si>
+    <t>Obesity, Type 2 Diabetes</t>
   </si>
 </sst>
 </file>
@@ -1320,7 +1488,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1370,6 +1538,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1400,7 +1572,7 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>7328</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>14654</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1450,7 +1622,7 @@
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>107</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1865,7 +2037,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="W20" dT="2025-07-27T04:33:05.47" personId="{98EFBBC1-5F71-4714-B1FB-1E2DFC825096}" id="{870D49C2-D2BC-4507-9362-BAC854248C6B}">
+  <threadedComment ref="W22" dT="2025-07-27T04:33:05.47" personId="{98EFBBC1-5F71-4714-B1FB-1E2DFC825096}" id="{870D49C2-D2BC-4507-9362-BAC854248C6B}">
     <text>61b guidance</text>
   </threadedComment>
 </ThreadedComments>
@@ -1873,18 +2045,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F67830F6-DCCC-47C3-BB21-4BD91FD34B53}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -1918,9 +2093,276 @@
         <v>37</v>
       </c>
     </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>325</v>
+      </c>
+      <c r="D3" t="s">
+        <v>421</v>
+      </c>
+      <c r="E3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="32" t="s">
+        <v>348</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="32" t="s">
+        <v>396</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="32" t="s">
+        <v>395</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="32" t="s">
+        <v>394</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="31" t="s">
+        <v>397</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="32" t="s">
+        <v>398</v>
+      </c>
+      <c r="C10" s="32" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="32" t="s">
+        <v>399</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B12" s="33" t="s">
+        <v>400</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B13" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B14" s="32" t="s">
+        <v>402</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B15" s="32" t="s">
+        <v>403</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B16" s="32" t="s">
+        <v>404</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="32" t="s">
+        <v>405</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" s="32" t="s">
+        <v>406</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19" s="32" t="s">
+        <v>407</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20" s="32" t="s">
+        <v>408</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21" s="32" t="s">
+        <v>409</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B22" s="32" t="s">
+        <v>410</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B23" s="32" t="s">
+        <v>411</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B24" s="32" t="s">
+        <v>412</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B25" s="32" t="s">
+        <v>413</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B26" s="32" t="s">
+        <v>414</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B27" s="32" t="s">
+        <v>415</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B28" s="32" t="s">
+        <v>416</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B29" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B30" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B31" s="32" t="s">
+        <v>418</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B32" s="31" t="s">
+        <v>419</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B33" s="32" t="s">
+        <v>420</v>
+      </c>
+      <c r="C33" s="32" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B34" s="32" t="s">
+        <v>352</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>393</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{8B09C592-C260-406C-ACB4-BBE3804E3D3E}"/>
+    <hyperlink ref="B9" location="mirikizumab!A1" display="Omvoh (mirikizumab-mrkz)" xr:uid="{7CB0C04F-F62C-4C40-924A-2716CEC65310}"/>
+    <hyperlink ref="B12" location="Kisunla!A1" display="Kisunla (donanemab-azbt)" xr:uid="{3C9B9F29-BC04-43CD-BD5B-8DF5B638DFA7}"/>
+    <hyperlink ref="B32" location="Trulicity!A1" display="Trulicity (dulaglutide)" xr:uid="{54A86C2E-78A2-4168-948E-9D8BD7D99DF5}"/>
+    <hyperlink ref="B4" location="'Mounjaro-Zepbound'!A1" display="Zepbound (tirzepatide)" xr:uid="{2517E363-25E9-477A-9BE5-5725CEE33242}"/>
+    <hyperlink ref="B3" location="'Mounjaro-Zepbound'!A1" display="Mounjaro (tirzepatide)" xr:uid="{026CF3BC-B66D-449F-ABC2-3B5DA044CFB9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3488,8 +3930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D0B04E-7193-4895-997B-E4F4972CD4A5}">
   <dimension ref="B2:M96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4950,13 +5392,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{172EBA39-FD53-497C-AEEB-0F0FD94197E7}">
-  <dimension ref="A1:DV102"/>
+  <dimension ref="A1:DV104"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AE24" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="Q3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AI45" sqref="AI45"/>
+      <selection pane="bottomRight" activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4969,7 +5411,7 @@
     <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
@@ -4980,7 +5422,7 @@
         <v>45960</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C2" s="2" t="s">
         <v>340</v>
       </c>
@@ -5085,3286 +5527,3412 @@
       </c>
       <c r="AG2" s="8"/>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C3" s="2">
+        <f>SUM(C5,C7,C8)</f>
+        <v>2545.5</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:L3" si="1">SUM(D5,D7,D8)</f>
+        <v>2793</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" si="1"/>
+        <v>3083</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" si="1"/>
+        <v>4051</v>
+      </c>
+      <c r="G3" s="2">
+        <f t="shared" si="1"/>
+        <v>3780</v>
+      </c>
+      <c r="H3" s="2">
+        <f t="shared" si="1"/>
+        <v>5580.2</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" si="1"/>
+        <v>5682</v>
+      </c>
+      <c r="J3" s="2">
+        <f t="shared" si="1"/>
+        <v>6687</v>
+      </c>
+      <c r="K3" s="2">
+        <f t="shared" si="1"/>
+        <v>6154</v>
+      </c>
+      <c r="L3" s="2">
+        <f t="shared" si="1"/>
+        <v>8580.4</v>
+      </c>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="2">
+        <f t="shared" ref="S3:AF3" si="2">SUM(S5,S7,S8)</f>
+        <v>6472</v>
+      </c>
+      <c r="T3" s="2">
+        <f t="shared" si="2"/>
+        <v>7440</v>
+      </c>
+      <c r="U3" s="2">
+        <f t="shared" si="2"/>
+        <v>12472</v>
+      </c>
+      <c r="V3" s="2">
+        <f t="shared" si="2"/>
+        <v>21720</v>
+      </c>
+      <c r="W3" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X3" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB3" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC3" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD3" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE3" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF3" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AG3" s="8"/>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C5" s="2">
         <v>568.5</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D5" s="2">
         <v>980</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E5" s="2">
         <v>1409</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F5" s="2">
         <v>2206</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G5" s="2">
         <v>1807</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H5" s="2">
         <v>3091</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I5" s="2">
         <v>3123</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J5" s="2">
         <v>3530</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K5" s="2">
         <v>3842</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L5" s="2">
         <v>5199</v>
       </c>
-      <c r="U3" s="2">
+      <c r="U5" s="2">
         <v>5163</v>
       </c>
-      <c r="V3" s="2">
+      <c r="V5" s="2">
         <v>11540</v>
       </c>
-      <c r="W3" s="10"/>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B4" s="2" t="s">
+      <c r="W5" s="10"/>
+      <c r="AH5" s="34"/>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C6" s="2">
         <v>751</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D6" s="2">
         <v>927</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E6" s="2">
         <v>1040</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F6" s="2">
         <v>1145</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G6" s="2">
         <v>1050</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H6" s="2">
         <v>1332</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I6" s="2">
         <v>1369</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J6" s="2">
         <v>1555</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K6" s="2">
         <v>1159</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L6" s="2">
         <v>1489</v>
       </c>
-      <c r="S4" s="2">
+      <c r="S6" s="2">
         <v>1350</v>
       </c>
-      <c r="T4" s="2">
+      <c r="T6" s="2">
         <v>2484</v>
       </c>
-      <c r="U4" s="2">
+      <c r="U6" s="2">
         <v>3863.4</v>
       </c>
-      <c r="V4" s="2">
+      <c r="V6" s="2">
         <v>5307</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B5" s="2" t="s">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C7" s="2">
         <v>1977</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D7" s="2">
         <v>1813</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E7" s="2">
         <v>1674</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F7" s="2">
         <v>1669</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G7" s="2">
         <v>1456</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H7" s="2">
         <v>1246</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I7" s="2">
         <v>1301</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J7" s="2">
         <v>1250</v>
       </c>
-      <c r="S5" s="2">
+      <c r="S7" s="2">
         <v>6472</v>
       </c>
-      <c r="T5" s="2">
+      <c r="T7" s="2">
         <v>7440</v>
       </c>
-      <c r="U5" s="2">
+      <c r="U7" s="2">
         <v>7133</v>
       </c>
-      <c r="V5" s="2">
+      <c r="V7" s="2">
         <v>5254</v>
       </c>
-      <c r="X5" s="10"/>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B6" s="2" t="s">
+      <c r="X7" s="10"/>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F8" s="2">
         <v>176</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G8" s="2">
         <v>517</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H8" s="2">
         <v>1243.2</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I8" s="2">
         <v>1258</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J8" s="2">
         <v>1907</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K8" s="2">
         <v>2312</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L8" s="2">
         <v>3381.4</v>
       </c>
-      <c r="U6" s="2">
+      <c r="U8" s="2">
         <v>176</v>
       </c>
-      <c r="V6" s="2">
+      <c r="V8" s="2">
         <v>4926</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B7" s="2" t="s">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C9" s="2">
         <v>577.5</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D9" s="2">
         <v>668</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E9" s="2">
         <v>701</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F9" s="2">
         <v>798</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G9" s="2">
         <v>686.5</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H9" s="2">
         <v>770</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I9" s="2">
         <v>686.4</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J9" s="2">
         <v>1198</v>
       </c>
-      <c r="S7" s="2">
+      <c r="S9" s="2">
         <v>1491</v>
       </c>
-      <c r="T7" s="2">
+      <c r="T9" s="2">
         <v>2066</v>
       </c>
-      <c r="U7" s="2">
+      <c r="U9" s="2">
         <v>2745</v>
       </c>
-      <c r="V7" s="2">
+      <c r="V9" s="2">
         <v>3341</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C10" s="2">
         <v>527</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D10" s="2">
         <v>704</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E10" s="2">
         <v>744.2</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F10" s="2">
         <v>784.6</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G10" s="2">
         <v>604</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H10" s="2">
         <v>825</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I10" s="2">
         <v>880</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J10" s="2">
         <v>952</v>
       </c>
-      <c r="S8" s="2">
+      <c r="S10" s="2">
         <v>2213</v>
       </c>
-      <c r="T8" s="2">
+      <c r="T10" s="2">
         <v>2482</v>
       </c>
-      <c r="U8" s="2">
+      <c r="U10" s="2">
         <v>2760</v>
       </c>
-      <c r="V8" s="2">
+      <c r="V10" s="2">
         <v>3260.5</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C11" s="2">
         <v>461</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D11" s="2">
         <v>440</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E11" s="2">
         <v>395</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F11" s="2">
         <v>367</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G11" s="2">
         <v>539</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H11" s="2">
         <v>632</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I11" s="2">
         <v>535</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J11" s="2">
         <v>620</v>
       </c>
-      <c r="S9" s="2">
+      <c r="S11" s="2">
         <v>2453</v>
       </c>
-      <c r="T9" s="2">
+      <c r="T11" s="2">
         <v>2024</v>
       </c>
-      <c r="U9" s="2">
+      <c r="U11" s="2">
         <v>1663</v>
       </c>
-      <c r="V9" s="2">
+      <c r="V11" s="2">
         <v>2325</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="S10" s="2">
+      <c r="S12" s="2">
         <v>1033</v>
       </c>
-      <c r="T10" s="2">
+      <c r="T12" s="2">
         <v>971.4</v>
       </c>
-      <c r="U10" s="2">
+      <c r="U12" s="2">
         <v>975</v>
       </c>
-      <c r="V10" s="2">
+      <c r="V12" s="2">
         <v>973</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B13" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="S11" s="2">
+      <c r="S13" s="2">
         <v>1115</v>
       </c>
-      <c r="T11" s="2">
+      <c r="T13" s="2">
         <v>830.5</v>
       </c>
-      <c r="U11" s="2">
+      <c r="U13" s="2">
         <v>923</v>
       </c>
-      <c r="V11" s="2">
+      <c r="V13" s="2">
         <v>957</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B12" s="2" t="s">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="S12" s="2">
+      <c r="S14" s="2">
         <v>1223</v>
       </c>
-      <c r="T12" s="2">
+      <c r="T14" s="2">
         <v>1019.4</v>
       </c>
-      <c r="U12" s="2">
+      <c r="U14" s="2">
         <v>852</v>
       </c>
-      <c r="V12" s="2">
+      <c r="V14" s="2">
         <v>917</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B13" s="2" t="s">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="S13" s="2">
+      <c r="S15" s="2">
         <v>577</v>
       </c>
-      <c r="T13" s="2">
+      <c r="T15" s="2">
         <v>651</v>
       </c>
-      <c r="U13" s="2">
+      <c r="U15" s="2">
         <v>678</v>
       </c>
-      <c r="V13" s="2">
+      <c r="V15" s="2">
         <v>870</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="S14" s="2">
+      <c r="S16" s="2">
         <v>893</v>
       </c>
-      <c r="T14" s="2">
+      <c r="T16" s="2">
         <v>760</v>
       </c>
-      <c r="U14" s="2">
+      <c r="U16" s="2">
         <v>728</v>
       </c>
-      <c r="V14" s="2">
+      <c r="V16" s="2">
         <v>677</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B15" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="U15" s="2">
-        <v>597</v>
-      </c>
-      <c r="V15" s="2">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
-      <c r="B16" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="S16" s="2">
-        <v>418</v>
-      </c>
-      <c r="T16" s="2">
-        <v>293</v>
-      </c>
-      <c r="U16" s="2">
-        <v>393</v>
-      </c>
-      <c r="V16" s="2">
-        <v>526</v>
       </c>
     </row>
     <row r="17" spans="1:126" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="U17" s="2">
-        <v>1695</v>
+        <v>597</v>
       </c>
       <c r="V17" s="2">
-        <v>116</v>
+        <v>627</v>
       </c>
     </row>
     <row r="18" spans="1:126" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
+      </c>
+      <c r="S18" s="2">
+        <v>418</v>
+      </c>
+      <c r="T18" s="2">
+        <v>293</v>
       </c>
       <c r="U18" s="2">
-        <v>678</v>
+        <v>393</v>
       </c>
       <c r="V18" s="2">
-        <v>29</v>
+        <v>526</v>
       </c>
     </row>
     <row r="19" spans="1:126" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="U19" s="2">
-        <v>3103</v>
+        <v>1695</v>
       </c>
       <c r="V19" s="2">
-        <v>3397</v>
-      </c>
-    </row>
-    <row r="20" spans="1:126" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="7">
-        <v>6960</v>
-      </c>
-      <c r="D20" s="7">
-        <v>8312</v>
-      </c>
-      <c r="E20" s="7">
-        <v>9499</v>
-      </c>
-      <c r="F20" s="7">
-        <v>9353.4</v>
-      </c>
-      <c r="G20" s="7">
-        <v>8768</v>
-      </c>
-      <c r="H20" s="7">
-        <v>11303</v>
-      </c>
-      <c r="I20" s="7">
-        <v>11439</v>
-      </c>
-      <c r="J20" s="7">
-        <v>13533</v>
-      </c>
-      <c r="K20" s="7">
-        <v>12728</v>
-      </c>
-      <c r="L20" s="7">
-        <v>15557</v>
-      </c>
-      <c r="M20" s="7">
-        <f>L20*1.04</f>
-        <v>16179.28</v>
-      </c>
-      <c r="N20" s="7">
-        <f>M20*1.04</f>
-        <v>16826.4512</v>
-      </c>
-      <c r="P20" s="7">
-        <v>21493</v>
-      </c>
-      <c r="Q20" s="7">
-        <v>22320</v>
-      </c>
-      <c r="R20" s="7">
-        <v>24540</v>
-      </c>
-      <c r="S20" s="7">
-        <v>28318</v>
-      </c>
-      <c r="T20" s="7">
-        <v>28541</v>
-      </c>
-      <c r="U20" s="7">
-        <f>SUM(U3:U19)</f>
-        <v>34125.4</v>
-      </c>
-      <c r="V20" s="7">
-        <f>SUM(V3:V19)</f>
-        <v>45042.5</v>
-      </c>
-      <c r="W20" s="7">
-        <f>SUM(K20:N20)</f>
-        <v>61290.731199999995</v>
-      </c>
-      <c r="X20" s="7">
-        <f>W20*1.2</f>
-        <v>73548.877439999997</v>
-      </c>
-      <c r="Y20" s="7">
-        <f>X20*1.1</f>
-        <v>80903.765184000004</v>
-      </c>
-      <c r="Z20" s="7">
-        <f>Y20*1.1</f>
-        <v>88994.141702400011</v>
-      </c>
-      <c r="AA20" s="7">
-        <f>Z20*1.1</f>
-        <v>97893.55587264002</v>
-      </c>
-      <c r="AB20" s="7">
-        <f>AA20*1.04</f>
-        <v>101809.29810754562</v>
-      </c>
-      <c r="AC20" s="7">
-        <f t="shared" ref="AC20:AF20" si="1">AB20*1.04</f>
-        <v>105881.67003184745</v>
-      </c>
-      <c r="AD20" s="7">
-        <f t="shared" si="1"/>
-        <v>110116.93683312135</v>
-      </c>
-      <c r="AE20" s="7">
-        <f t="shared" si="1"/>
-        <v>114521.61430644621</v>
-      </c>
-      <c r="AF20" s="7">
-        <f t="shared" si="1"/>
-        <v>119102.47887870406</v>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="20" spans="1:126" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="U20" s="2">
+        <v>678</v>
+      </c>
+      <c r="V20" s="2">
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:126" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="2">
-        <v>1627</v>
-      </c>
-      <c r="D21" s="2">
-        <v>1807</v>
-      </c>
-      <c r="E21" s="2">
-        <v>1860</v>
-      </c>
-      <c r="F21" s="2">
-        <v>1788</v>
-      </c>
-      <c r="G21" s="2">
-        <v>1674</v>
-      </c>
-      <c r="H21" s="2">
-        <v>2170</v>
-      </c>
-      <c r="I21" s="2">
-        <v>2171</v>
-      </c>
-      <c r="J21" s="2">
-        <v>2404</v>
-      </c>
-      <c r="K21" s="2">
-        <v>2224</v>
-      </c>
-      <c r="L21" s="2">
-        <v>2448</v>
-      </c>
-      <c r="M21" s="2">
-        <f>M20*0.16</f>
-        <v>2588.6848</v>
-      </c>
-      <c r="N21" s="2">
-        <f>N20*0.16</f>
-        <v>2692.2321919999999</v>
-      </c>
-      <c r="P21" s="2">
-        <v>4682</v>
-      </c>
-      <c r="Q21" s="2">
-        <v>4721</v>
-      </c>
-      <c r="R21" s="2">
-        <v>5483</v>
-      </c>
-      <c r="S21" s="2">
-        <v>7313</v>
-      </c>
-      <c r="T21" s="2">
-        <v>6630</v>
+        <v>354</v>
       </c>
       <c r="U21" s="2">
-        <v>7082</v>
+        <v>3103</v>
       </c>
       <c r="V21" s="2">
-        <v>8418</v>
-      </c>
-      <c r="W21" s="2">
-        <f>SUM(K21:N21)</f>
-        <v>9952.9169920000004</v>
-      </c>
-      <c r="X21" s="2">
-        <f>X20*0.16</f>
-        <v>11767.8203904</v>
-      </c>
-      <c r="Y21" s="2">
-        <f t="shared" ref="Y21:AF21" si="2">Y20*0.16</f>
-        <v>12944.602429440001</v>
-      </c>
-      <c r="Z21" s="2">
-        <f t="shared" si="2"/>
-        <v>14239.062672384001</v>
-      </c>
-      <c r="AA21" s="2">
-        <f t="shared" si="2"/>
-        <v>15662.968939622404</v>
-      </c>
-      <c r="AB21" s="2">
-        <f t="shared" si="2"/>
-        <v>16289.4876972073</v>
-      </c>
-      <c r="AC21" s="2">
-        <f t="shared" si="2"/>
-        <v>16941.067205095591</v>
-      </c>
-      <c r="AD21" s="2">
-        <f t="shared" si="2"/>
-        <v>17618.709893299416</v>
-      </c>
-      <c r="AE21" s="2">
-        <f t="shared" si="2"/>
-        <v>18323.458289031394</v>
-      </c>
-      <c r="AF21" s="2">
-        <f t="shared" si="2"/>
-        <v>19056.396620592652</v>
-      </c>
-    </row>
-    <row r="22" spans="1:126" x14ac:dyDescent="0.2">
-      <c r="B22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="2">
-        <f t="shared" ref="C22" si="3">C20-C21</f>
-        <v>5333</v>
-      </c>
-      <c r="D22" s="2">
-        <f t="shared" ref="D22" si="4">D20-D21</f>
-        <v>6505</v>
-      </c>
-      <c r="E22" s="2">
-        <f>E20-E21</f>
-        <v>7639</v>
-      </c>
-      <c r="F22" s="2">
-        <f t="shared" ref="F22" si="5">F20-F21</f>
-        <v>7565.4</v>
-      </c>
-      <c r="G22" s="2">
-        <f t="shared" ref="G22:L22" si="6">G20-G21</f>
-        <v>7094</v>
-      </c>
-      <c r="H22" s="2">
-        <f t="shared" ref="H22" si="7">H20-H21</f>
-        <v>9133</v>
-      </c>
-      <c r="I22" s="2">
-        <f>I20-I21</f>
-        <v>9268</v>
-      </c>
-      <c r="J22" s="2">
-        <f t="shared" ref="J22" si="8">J20-J21</f>
-        <v>11129</v>
-      </c>
-      <c r="K22" s="2">
-        <f t="shared" si="6"/>
-        <v>10504</v>
-      </c>
-      <c r="L22" s="2">
-        <f t="shared" si="6"/>
-        <v>13109</v>
-      </c>
-      <c r="M22" s="2">
-        <f t="shared" ref="M22:R22" si="9">M20-M21</f>
-        <v>13590.5952</v>
-      </c>
-      <c r="N22" s="2">
-        <f t="shared" si="9"/>
-        <v>14134.219008</v>
-      </c>
-      <c r="P22" s="2">
-        <f t="shared" si="9"/>
-        <v>16811</v>
-      </c>
-      <c r="Q22" s="2">
-        <f t="shared" si="9"/>
-        <v>17599</v>
-      </c>
-      <c r="R22" s="2">
-        <f t="shared" si="9"/>
-        <v>19057</v>
-      </c>
-      <c r="S22" s="2">
-        <f t="shared" ref="S22" si="10">S20-S21</f>
-        <v>21005</v>
-      </c>
-      <c r="T22" s="2">
-        <f t="shared" ref="T22" si="11">T20-T21</f>
-        <v>21911</v>
-      </c>
-      <c r="U22" s="2">
-        <f t="shared" ref="U22" si="12">U20-U21</f>
-        <v>27043.4</v>
-      </c>
-      <c r="V22" s="2">
-        <f t="shared" ref="V22" si="13">V20-V21</f>
-        <v>36624.5</v>
-      </c>
-      <c r="W22" s="2">
-        <f t="shared" ref="W22" si="14">W20-W21</f>
-        <v>51337.814207999996</v>
-      </c>
-      <c r="X22" s="2">
-        <f t="shared" ref="X22" si="15">X20-X21</f>
-        <v>61781.0570496</v>
-      </c>
-      <c r="Y22" s="2">
-        <f t="shared" ref="Y22" si="16">Y20-Y21</f>
-        <v>67959.162754560006</v>
-      </c>
-      <c r="Z22" s="2">
-        <f t="shared" ref="Z22" si="17">Z20-Z21</f>
-        <v>74755.079030016015</v>
-      </c>
-      <c r="AA22" s="2">
-        <f t="shared" ref="AA22:AB22" si="18">AA20-AA21</f>
-        <v>82230.586933017621</v>
-      </c>
-      <c r="AB22" s="2">
-        <f t="shared" si="18"/>
-        <v>85519.810410338323</v>
-      </c>
-      <c r="AC22" s="2">
-        <f t="shared" ref="AC22" si="19">AC20-AC21</f>
-        <v>88940.602826751856</v>
-      </c>
-      <c r="AD22" s="2">
-        <f t="shared" ref="AD22" si="20">AD20-AD21</f>
-        <v>92498.226939821936</v>
-      </c>
-      <c r="AE22" s="2">
-        <f t="shared" ref="AE22" si="21">AE20-AE21</f>
-        <v>96198.156017414818</v>
-      </c>
-      <c r="AF22" s="2">
-        <f t="shared" ref="AF22" si="22">AF20-AF21</f>
-        <v>100046.0822581114</v>
+        <v>3397</v>
+      </c>
+    </row>
+    <row r="22" spans="1:126" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="7">
+        <v>6960</v>
+      </c>
+      <c r="D22" s="7">
+        <v>8312</v>
+      </c>
+      <c r="E22" s="7">
+        <v>9499</v>
+      </c>
+      <c r="F22" s="7">
+        <v>9353.4</v>
+      </c>
+      <c r="G22" s="7">
+        <v>8768</v>
+      </c>
+      <c r="H22" s="7">
+        <v>11303</v>
+      </c>
+      <c r="I22" s="7">
+        <v>11439</v>
+      </c>
+      <c r="J22" s="7">
+        <v>13533</v>
+      </c>
+      <c r="K22" s="7">
+        <v>12728</v>
+      </c>
+      <c r="L22" s="7">
+        <v>15557</v>
+      </c>
+      <c r="M22" s="7">
+        <f>L22*1.04</f>
+        <v>16179.28</v>
+      </c>
+      <c r="N22" s="7">
+        <f>M22*1.04</f>
+        <v>16826.4512</v>
+      </c>
+      <c r="P22" s="7">
+        <v>21493</v>
+      </c>
+      <c r="Q22" s="7">
+        <v>22320</v>
+      </c>
+      <c r="R22" s="7">
+        <v>24540</v>
+      </c>
+      <c r="S22" s="7">
+        <v>28318</v>
+      </c>
+      <c r="T22" s="7">
+        <v>28541</v>
+      </c>
+      <c r="U22" s="7">
+        <f>SUM(U5:U21)</f>
+        <v>34125.4</v>
+      </c>
+      <c r="V22" s="7">
+        <f>SUM(V5:V21)</f>
+        <v>45042.5</v>
+      </c>
+      <c r="W22" s="7">
+        <f>SUM(K22:N22)</f>
+        <v>61290.731199999995</v>
+      </c>
+      <c r="X22" s="7">
+        <f>W22*1.2</f>
+        <v>73548.877439999997</v>
+      </c>
+      <c r="Y22" s="7">
+        <f>X22*1.1</f>
+        <v>80903.765184000004</v>
+      </c>
+      <c r="Z22" s="7">
+        <f>Y22*1.1</f>
+        <v>88994.141702400011</v>
+      </c>
+      <c r="AA22" s="7">
+        <f>Z22*1.1</f>
+        <v>97893.55587264002</v>
+      </c>
+      <c r="AB22" s="7">
+        <f>AA22*1.04</f>
+        <v>101809.29810754562</v>
+      </c>
+      <c r="AC22" s="7">
+        <f t="shared" ref="AC22:AF22" si="3">AB22*1.04</f>
+        <v>105881.67003184745</v>
+      </c>
+      <c r="AD22" s="7">
+        <f t="shared" si="3"/>
+        <v>110116.93683312135</v>
+      </c>
+      <c r="AE22" s="7">
+        <f t="shared" si="3"/>
+        <v>114521.61430644621</v>
+      </c>
+      <c r="AF22" s="7">
+        <f t="shared" si="3"/>
+        <v>119102.47887870406</v>
       </c>
     </row>
     <row r="23" spans="1:126" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C23" s="2">
-        <v>1985</v>
+        <v>1627</v>
       </c>
       <c r="D23" s="2">
-        <v>2357</v>
+        <v>1807</v>
       </c>
       <c r="E23" s="2">
-        <v>2409</v>
+        <v>1860</v>
       </c>
       <c r="F23" s="2">
-        <v>2563</v>
+        <v>1788</v>
       </c>
       <c r="G23" s="2">
-        <v>2523</v>
+        <v>1674</v>
       </c>
       <c r="H23" s="2">
-        <v>2711</v>
+        <v>2170</v>
       </c>
       <c r="I23" s="2">
-        <v>2734</v>
+        <v>2171</v>
       </c>
       <c r="J23" s="2">
-        <v>3022.5</v>
+        <v>2404</v>
       </c>
       <c r="K23" s="2">
-        <v>2734</v>
+        <v>2224</v>
       </c>
       <c r="L23" s="2">
-        <v>3336</v>
+        <v>2448</v>
       </c>
       <c r="M23" s="2">
-        <f t="shared" ref="M23:N23" si="23">L23</f>
-        <v>3336</v>
+        <f>M22*0.16</f>
+        <v>2588.6848</v>
       </c>
       <c r="N23" s="2">
-        <f t="shared" si="23"/>
-        <v>3336</v>
+        <f>N22*0.16</f>
+        <v>2692.2321919999999</v>
       </c>
       <c r="P23" s="2">
-        <v>5051</v>
+        <v>4682</v>
       </c>
       <c r="Q23" s="2">
-        <v>5595</v>
+        <v>4721</v>
       </c>
       <c r="R23" s="2">
-        <v>6086</v>
+        <v>5483</v>
       </c>
       <c r="S23" s="2">
-        <v>7026</v>
+        <v>7313</v>
       </c>
       <c r="T23" s="2">
-        <v>7191</v>
+        <v>6630</v>
       </c>
       <c r="U23" s="2">
-        <v>9313</v>
+        <v>7082</v>
       </c>
       <c r="V23" s="2">
-        <v>10991</v>
+        <v>8418</v>
       </c>
       <c r="W23" s="2">
         <f>SUM(K23:N23)</f>
-        <v>12742</v>
+        <v>9952.9169920000004</v>
+      </c>
+      <c r="X23" s="2">
+        <f>X22*0.16</f>
+        <v>11767.8203904</v>
+      </c>
+      <c r="Y23" s="2">
+        <f t="shared" ref="Y23:AF23" si="4">Y22*0.16</f>
+        <v>12944.602429440001</v>
+      </c>
+      <c r="Z23" s="2">
+        <f t="shared" si="4"/>
+        <v>14239.062672384001</v>
+      </c>
+      <c r="AA23" s="2">
+        <f t="shared" si="4"/>
+        <v>15662.968939622404</v>
+      </c>
+      <c r="AB23" s="2">
+        <f t="shared" si="4"/>
+        <v>16289.4876972073</v>
+      </c>
+      <c r="AC23" s="2">
+        <f t="shared" si="4"/>
+        <v>16941.067205095591</v>
+      </c>
+      <c r="AD23" s="2">
+        <f t="shared" si="4"/>
+        <v>17618.709893299416</v>
+      </c>
+      <c r="AE23" s="2">
+        <f t="shared" si="4"/>
+        <v>18323.458289031394</v>
+      </c>
+      <c r="AF23" s="2">
+        <f t="shared" si="4"/>
+        <v>19056.396620592652</v>
       </c>
     </row>
     <row r="24" spans="1:126" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C24" s="2">
-        <v>1749</v>
+        <f t="shared" ref="C24" si="5">C22-C23</f>
+        <v>5333</v>
       </c>
       <c r="D24" s="2">
-        <v>1925</v>
+        <f t="shared" ref="D24" si="6">D22-D23</f>
+        <v>6505</v>
       </c>
       <c r="E24" s="2">
-        <v>1804</v>
+        <f>E22-E23</f>
+        <v>7639</v>
       </c>
       <c r="F24" s="2">
-        <v>1925</v>
+        <f t="shared" ref="F24" si="7">F22-F23</f>
+        <v>7565.4</v>
       </c>
       <c r="G24" s="2">
-        <v>1952</v>
+        <f t="shared" ref="G24:L24" si="8">G22-G23</f>
+        <v>7094</v>
       </c>
       <c r="H24" s="2">
-        <v>2117</v>
+        <f t="shared" ref="H24" si="9">H22-H23</f>
+        <v>9133</v>
       </c>
       <c r="I24" s="2">
-        <v>2100</v>
+        <f>I22-I23</f>
+        <v>9268</v>
       </c>
       <c r="J24" s="2">
-        <v>2424.5</v>
+        <f t="shared" ref="J24" si="10">J22-J23</f>
+        <v>11129</v>
       </c>
       <c r="K24" s="2">
-        <v>2469</v>
+        <f t="shared" si="8"/>
+        <v>10504</v>
       </c>
       <c r="L24" s="2">
-        <v>2753</v>
+        <f t="shared" si="8"/>
+        <v>13109</v>
       </c>
       <c r="M24" s="2">
-        <f t="shared" ref="M24:N24" si="24">L24</f>
-        <v>2753</v>
+        <f t="shared" ref="M24:R24" si="11">M22-M23</f>
+        <v>13590.5952</v>
       </c>
       <c r="N24" s="2">
-        <f t="shared" si="24"/>
-        <v>2753</v>
+        <f t="shared" si="11"/>
+        <v>14134.219008</v>
       </c>
       <c r="P24" s="2">
-        <v>5975</v>
+        <f t="shared" si="11"/>
+        <v>16811</v>
       </c>
       <c r="Q24" s="2">
-        <v>6214</v>
+        <f t="shared" si="11"/>
+        <v>17599</v>
       </c>
       <c r="R24" s="2">
-        <v>6121</v>
+        <f t="shared" si="11"/>
+        <v>19057</v>
       </c>
       <c r="S24" s="2">
-        <v>6432</v>
+        <f t="shared" ref="S24" si="12">S22-S23</f>
+        <v>21005</v>
       </c>
       <c r="T24" s="2">
-        <v>6440</v>
+        <f t="shared" ref="T24" si="13">T22-T23</f>
+        <v>21911</v>
       </c>
       <c r="U24" s="2">
-        <v>7403</v>
+        <f t="shared" ref="U24" si="14">U22-U23</f>
+        <v>27043.4</v>
       </c>
       <c r="V24" s="2">
-        <v>8594</v>
+        <f t="shared" ref="V24" si="15">V22-V23</f>
+        <v>36624.5</v>
       </c>
       <c r="W24" s="2">
-        <f>SUM(K24:N24)</f>
-        <v>10728</v>
+        <f t="shared" ref="W24" si="16">W22-W23</f>
+        <v>51337.814207999996</v>
       </c>
       <c r="X24" s="2">
-        <f>W24*1.1</f>
-        <v>11800.800000000001</v>
+        <f t="shared" ref="X24" si="17">X22-X23</f>
+        <v>61781.0570496</v>
       </c>
       <c r="Y24" s="2">
-        <f t="shared" ref="Y24:AA24" si="25">X24*1.04</f>
-        <v>12272.832000000002</v>
+        <f t="shared" ref="Y24" si="18">Y22-Y23</f>
+        <v>67959.162754560006</v>
       </c>
       <c r="Z24" s="2">
-        <f t="shared" si="25"/>
-        <v>12763.745280000003</v>
+        <f t="shared" ref="Z24" si="19">Z22-Z23</f>
+        <v>74755.079030016015</v>
       </c>
       <c r="AA24" s="2">
-        <f t="shared" si="25"/>
-        <v>13274.295091200003</v>
+        <f t="shared" ref="AA24:AB24" si="20">AA22-AA23</f>
+        <v>82230.586933017621</v>
       </c>
       <c r="AB24" s="2">
-        <f>AA24*1.02</f>
-        <v>13539.780993024004</v>
+        <f t="shared" si="20"/>
+        <v>85519.810410338323</v>
       </c>
       <c r="AC24" s="2">
-        <f t="shared" ref="AC24:AF24" si="26">AB24*1.02</f>
-        <v>13810.576612884484</v>
+        <f t="shared" ref="AC24" si="21">AC22-AC23</f>
+        <v>88940.602826751856</v>
       </c>
       <c r="AD24" s="2">
-        <f t="shared" si="26"/>
-        <v>14086.788145142174</v>
+        <f t="shared" ref="AD24" si="22">AD22-AD23</f>
+        <v>92498.226939821936</v>
       </c>
       <c r="AE24" s="2">
-        <f t="shared" si="26"/>
-        <v>14368.523908045017</v>
+        <f t="shared" ref="AE24" si="23">AE22-AE23</f>
+        <v>96198.156017414818</v>
       </c>
       <c r="AF24" s="2">
-        <f t="shared" si="26"/>
-        <v>14655.894386205919</v>
+        <f t="shared" ref="AF24" si="24">AF22-AF23</f>
+        <v>100046.0822581114</v>
       </c>
     </row>
     <row r="25" spans="1:126" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1985</v>
+      </c>
+      <c r="D25" s="2">
+        <v>2357</v>
+      </c>
+      <c r="E25" s="2">
+        <v>2409</v>
+      </c>
+      <c r="F25" s="2">
+        <v>2563</v>
+      </c>
+      <c r="G25" s="2">
+        <v>2523</v>
+      </c>
+      <c r="H25" s="2">
+        <v>2711</v>
+      </c>
+      <c r="I25" s="2">
+        <v>2734</v>
+      </c>
+      <c r="J25" s="2">
+        <v>3022.5</v>
+      </c>
+      <c r="K25" s="2">
+        <v>2734</v>
+      </c>
+      <c r="L25" s="2">
+        <v>3336</v>
+      </c>
+      <c r="M25" s="2">
+        <f t="shared" ref="M25:N25" si="25">L25</f>
+        <v>3336</v>
+      </c>
+      <c r="N25" s="2">
+        <f t="shared" si="25"/>
+        <v>3336</v>
+      </c>
+      <c r="P25" s="2">
+        <v>5051</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>5595</v>
+      </c>
+      <c r="R25" s="2">
+        <v>6086</v>
+      </c>
+      <c r="S25" s="2">
+        <v>7026</v>
+      </c>
+      <c r="T25" s="2">
+        <v>7191</v>
+      </c>
+      <c r="U25" s="2">
+        <v>9313</v>
+      </c>
+      <c r="V25" s="2">
+        <v>10991</v>
+      </c>
+      <c r="W25" s="2">
+        <f>SUM(K25:N25)</f>
+        <v>12742</v>
+      </c>
+    </row>
+    <row r="26" spans="1:126" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1749</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1925</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1804</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1925</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1952</v>
+      </c>
+      <c r="H26" s="2">
+        <v>2117</v>
+      </c>
+      <c r="I26" s="2">
+        <v>2100</v>
+      </c>
+      <c r="J26" s="2">
+        <v>2424.5</v>
+      </c>
+      <c r="K26" s="2">
+        <v>2469</v>
+      </c>
+      <c r="L26" s="2">
+        <v>2753</v>
+      </c>
+      <c r="M26" s="2">
+        <f t="shared" ref="M26:N26" si="26">L26</f>
+        <v>2753</v>
+      </c>
+      <c r="N26" s="2">
+        <f t="shared" si="26"/>
+        <v>2753</v>
+      </c>
+      <c r="P26" s="2">
+        <v>5975</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>6214</v>
+      </c>
+      <c r="R26" s="2">
+        <v>6121</v>
+      </c>
+      <c r="S26" s="2">
+        <v>6432</v>
+      </c>
+      <c r="T26" s="2">
+        <v>6440</v>
+      </c>
+      <c r="U26" s="2">
+        <v>7403</v>
+      </c>
+      <c r="V26" s="2">
+        <v>8594</v>
+      </c>
+      <c r="W26" s="2">
+        <f>SUM(K26:N26)</f>
+        <v>10728</v>
+      </c>
+      <c r="X26" s="2">
+        <f>W26*1.1</f>
+        <v>11800.800000000001</v>
+      </c>
+      <c r="Y26" s="2">
+        <f t="shared" ref="Y26:AA26" si="27">X26*1.04</f>
+        <v>12272.832000000002</v>
+      </c>
+      <c r="Z26" s="2">
+        <f t="shared" si="27"/>
+        <v>12763.745280000003</v>
+      </c>
+      <c r="AA26" s="2">
+        <f t="shared" si="27"/>
+        <v>13274.295091200003</v>
+      </c>
+      <c r="AB26" s="2">
+        <f>AA26*1.02</f>
+        <v>13539.780993024004</v>
+      </c>
+      <c r="AC26" s="2">
+        <f t="shared" ref="AC26:AF26" si="28">AB26*1.02</f>
+        <v>13810.576612884484</v>
+      </c>
+      <c r="AD26" s="2">
+        <f t="shared" si="28"/>
+        <v>14086.788145142174</v>
+      </c>
+      <c r="AE26" s="2">
+        <f t="shared" si="28"/>
+        <v>14368.523908045017</v>
+      </c>
+      <c r="AF26" s="2">
+        <f t="shared" si="28"/>
+        <v>14655.894386205919</v>
+      </c>
+    </row>
+    <row r="27" spans="1:126" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="2">
-        <f t="shared" ref="C25" si="27">SUM(C23:C24)</f>
+      <c r="C27" s="2">
+        <f t="shared" ref="C27" si="29">SUM(C25:C26)</f>
         <v>3734</v>
       </c>
-      <c r="D25" s="2">
-        <f t="shared" ref="D25" si="28">SUM(D23:D24)</f>
+      <c r="D27" s="2">
+        <f t="shared" ref="D27" si="30">SUM(D25:D26)</f>
         <v>4282</v>
       </c>
-      <c r="E25" s="2">
-        <f t="shared" ref="E25:F25" si="29">SUM(E23:E24)</f>
+      <c r="E27" s="2">
+        <f t="shared" ref="E27:F27" si="31">SUM(E25:E26)</f>
         <v>4213</v>
       </c>
-      <c r="F25" s="2">
-        <f t="shared" si="29"/>
+      <c r="F27" s="2">
+        <f t="shared" si="31"/>
         <v>4488</v>
       </c>
-      <c r="G25" s="2">
-        <f t="shared" ref="G25:L25" si="30">SUM(G23:G24)</f>
+      <c r="G27" s="2">
+        <f t="shared" ref="G27:L27" si="32">SUM(G25:G26)</f>
         <v>4475</v>
       </c>
-      <c r="H25" s="2">
-        <f t="shared" ref="H25:J25" si="31">SUM(H23:H24)</f>
+      <c r="H27" s="2">
+        <f t="shared" ref="H27:J27" si="33">SUM(H25:H26)</f>
         <v>4828</v>
       </c>
-      <c r="I25" s="2">
-        <f t="shared" si="31"/>
+      <c r="I27" s="2">
+        <f t="shared" si="33"/>
         <v>4834</v>
       </c>
-      <c r="J25" s="2">
-        <f t="shared" si="31"/>
+      <c r="J27" s="2">
+        <f t="shared" si="33"/>
         <v>5447</v>
       </c>
-      <c r="K25" s="2">
-        <f t="shared" si="30"/>
+      <c r="K27" s="2">
+        <f t="shared" si="32"/>
         <v>5203</v>
       </c>
-      <c r="L25" s="2">
-        <f t="shared" si="30"/>
-        <v>6089</v>
-      </c>
-      <c r="M25" s="2">
-        <f t="shared" ref="M25:R25" si="32">SUM(M23:M24)</f>
-        <v>6089</v>
-      </c>
-      <c r="N25" s="2">
+      <c r="L27" s="2">
         <f t="shared" si="32"/>
         <v>6089</v>
       </c>
-      <c r="P25" s="2">
-        <f t="shared" ref="P25" si="33">SUM(P23:P24)</f>
+      <c r="M27" s="2">
+        <f t="shared" ref="M27:R27" si="34">SUM(M25:M26)</f>
+        <v>6089</v>
+      </c>
+      <c r="N27" s="2">
+        <f t="shared" si="34"/>
+        <v>6089</v>
+      </c>
+      <c r="P27" s="2">
+        <f t="shared" ref="P27" si="35">SUM(P25:P26)</f>
         <v>11026</v>
       </c>
-      <c r="Q25" s="2">
-        <f t="shared" ref="Q25" si="34">SUM(Q23:Q24)</f>
+      <c r="Q27" s="2">
+        <f t="shared" ref="Q27" si="36">SUM(Q25:Q26)</f>
         <v>11809</v>
       </c>
-      <c r="R25" s="2">
-        <f t="shared" si="32"/>
+      <c r="R27" s="2">
+        <f t="shared" si="34"/>
         <v>12207</v>
       </c>
-      <c r="S25" s="2">
-        <f t="shared" ref="S25" si="35">SUM(S23:S24)</f>
+      <c r="S27" s="2">
+        <f t="shared" ref="S27" si="37">SUM(S25:S26)</f>
         <v>13458</v>
       </c>
-      <c r="T25" s="2">
-        <f t="shared" ref="T25" si="36">SUM(T23:T24)</f>
+      <c r="T27" s="2">
+        <f t="shared" ref="T27" si="38">SUM(T25:T26)</f>
         <v>13631</v>
       </c>
-      <c r="U25" s="2">
-        <f t="shared" ref="U25" si="37">SUM(U23:U24)</f>
+      <c r="U27" s="2">
+        <f t="shared" ref="U27" si="39">SUM(U25:U26)</f>
         <v>16716</v>
       </c>
-      <c r="V25" s="2">
-        <f t="shared" ref="V25" si="38">SUM(V23:V24)</f>
+      <c r="V27" s="2">
+        <f t="shared" ref="V27" si="40">SUM(V25:V26)</f>
         <v>19585</v>
       </c>
-      <c r="W25" s="2">
-        <f t="shared" ref="W25" si="39">SUM(W23:W24)</f>
+      <c r="W27" s="2">
+        <f t="shared" ref="W27" si="41">SUM(W25:W26)</f>
         <v>23470</v>
       </c>
-      <c r="X25" s="2">
-        <f t="shared" ref="X25" si="40">SUM(X23:X24)</f>
+      <c r="X27" s="2">
+        <f t="shared" ref="X27" si="42">SUM(X25:X26)</f>
         <v>11800.800000000001</v>
       </c>
-      <c r="Y25" s="2">
-        <f t="shared" ref="Y25" si="41">SUM(Y23:Y24)</f>
+      <c r="Y27" s="2">
+        <f t="shared" ref="Y27" si="43">SUM(Y25:Y26)</f>
         <v>12272.832000000002</v>
       </c>
-      <c r="Z25" s="2">
-        <f t="shared" ref="Z25" si="42">SUM(Z23:Z24)</f>
+      <c r="Z27" s="2">
+        <f t="shared" ref="Z27" si="44">SUM(Z25:Z26)</f>
         <v>12763.745280000003</v>
       </c>
-      <c r="AA25" s="2">
-        <f t="shared" ref="AA25:AB25" si="43">SUM(AA23:AA24)</f>
+      <c r="AA27" s="2">
+        <f t="shared" ref="AA27:AB27" si="45">SUM(AA25:AA26)</f>
         <v>13274.295091200003</v>
       </c>
-      <c r="AB25" s="2">
-        <f t="shared" si="43"/>
+      <c r="AB27" s="2">
+        <f t="shared" si="45"/>
         <v>13539.780993024004</v>
       </c>
-      <c r="AC25" s="2">
-        <f t="shared" ref="AC25" si="44">SUM(AC23:AC24)</f>
+      <c r="AC27" s="2">
+        <f t="shared" ref="AC27" si="46">SUM(AC25:AC26)</f>
         <v>13810.576612884484</v>
       </c>
-      <c r="AD25" s="2">
-        <f t="shared" ref="AD25" si="45">SUM(AD23:AD24)</f>
+      <c r="AD27" s="2">
+        <f t="shared" ref="AD27" si="47">SUM(AD25:AD26)</f>
         <v>14086.788145142174</v>
       </c>
-      <c r="AE25" s="2">
-        <f t="shared" ref="AE25" si="46">SUM(AE23:AE24)</f>
+      <c r="AE27" s="2">
+        <f t="shared" ref="AE27" si="48">SUM(AE25:AE26)</f>
         <v>14368.523908045017</v>
       </c>
-      <c r="AF25" s="2">
-        <f t="shared" ref="AF25" si="47">SUM(AF23:AF24)</f>
+      <c r="AF27" s="2">
+        <f t="shared" ref="AF27" si="49">SUM(AF25:AF26)</f>
         <v>14655.894386205919</v>
       </c>
     </row>
-    <row r="26" spans="1:126" x14ac:dyDescent="0.2">
-      <c r="B26" s="2" t="s">
+    <row r="28" spans="1:126" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="2">
-        <f t="shared" ref="C26" si="48">C22-C25</f>
+      <c r="C28" s="2">
+        <f t="shared" ref="C28" si="50">C24-C27</f>
         <v>1599</v>
       </c>
-      <c r="D26" s="2">
-        <f t="shared" ref="D26" si="49">D22-D25</f>
+      <c r="D28" s="2">
+        <f t="shared" ref="D28" si="51">D24-D27</f>
         <v>2223</v>
       </c>
-      <c r="E26" s="2">
-        <f t="shared" ref="E26:F26" si="50">E22-E25</f>
+      <c r="E28" s="2">
+        <f t="shared" ref="E28:F28" si="52">E24-E27</f>
         <v>3426</v>
       </c>
-      <c r="F26" s="2">
-        <f t="shared" si="50"/>
+      <c r="F28" s="2">
+        <f t="shared" si="52"/>
         <v>3077.3999999999996</v>
       </c>
-      <c r="G26" s="2">
-        <f t="shared" ref="G26:L26" si="51">G22-G25</f>
+      <c r="G28" s="2">
+        <f t="shared" ref="G28:L28" si="53">G24-G27</f>
         <v>2619</v>
       </c>
-      <c r="H26" s="2">
-        <f t="shared" ref="H26:J26" si="52">H22-H25</f>
+      <c r="H28" s="2">
+        <f t="shared" ref="H28:J28" si="54">H24-H27</f>
         <v>4305</v>
       </c>
-      <c r="I26" s="2">
-        <f t="shared" si="52"/>
+      <c r="I28" s="2">
+        <f t="shared" si="54"/>
         <v>4434</v>
       </c>
-      <c r="J26" s="2">
-        <f t="shared" si="52"/>
+      <c r="J28" s="2">
+        <f t="shared" si="54"/>
         <v>5682</v>
       </c>
-      <c r="K26" s="2">
-        <f t="shared" si="51"/>
+      <c r="K28" s="2">
+        <f t="shared" si="53"/>
         <v>5301</v>
       </c>
-      <c r="L26" s="2">
-        <f t="shared" si="51"/>
+      <c r="L28" s="2">
+        <f t="shared" si="53"/>
         <v>7020</v>
       </c>
-      <c r="M26" s="2">
-        <f t="shared" ref="M26:R26" si="53">M22-M25</f>
+      <c r="M28" s="2">
+        <f t="shared" ref="M28:R28" si="55">M24-M27</f>
         <v>7501.5951999999997</v>
       </c>
-      <c r="N26" s="2">
-        <f t="shared" si="53"/>
+      <c r="N28" s="2">
+        <f t="shared" si="55"/>
         <v>8045.219008</v>
       </c>
-      <c r="P26" s="2">
-        <f t="shared" ref="P26" si="54">P22-P25</f>
+      <c r="P28" s="2">
+        <f t="shared" ref="P28" si="56">P24-P27</f>
         <v>5785</v>
       </c>
-      <c r="Q26" s="2">
-        <f t="shared" ref="Q26" si="55">Q22-Q25</f>
+      <c r="Q28" s="2">
+        <f t="shared" ref="Q28" si="57">Q24-Q27</f>
         <v>5790</v>
       </c>
-      <c r="R26" s="2">
-        <f t="shared" si="53"/>
+      <c r="R28" s="2">
+        <f t="shared" si="55"/>
         <v>6850</v>
       </c>
-      <c r="S26" s="2">
-        <f t="shared" ref="S26" si="56">S22-S25</f>
+      <c r="S28" s="2">
+        <f t="shared" ref="S28" si="58">S24-S27</f>
         <v>7547</v>
       </c>
-      <c r="T26" s="2">
-        <f t="shared" ref="T26" si="57">T22-T25</f>
+      <c r="T28" s="2">
+        <f t="shared" ref="T28" si="59">T24-T27</f>
         <v>8280</v>
       </c>
-      <c r="U26" s="2">
-        <f t="shared" ref="U26" si="58">U22-U25</f>
+      <c r="U28" s="2">
+        <f t="shared" ref="U28" si="60">U24-U27</f>
         <v>10327.400000000001</v>
       </c>
-      <c r="V26" s="2">
-        <f t="shared" ref="V26" si="59">V22-V25</f>
+      <c r="V28" s="2">
+        <f t="shared" ref="V28" si="61">V24-V27</f>
         <v>17039.5</v>
       </c>
-      <c r="W26" s="2">
-        <f t="shared" ref="W26" si="60">W22-W25</f>
+      <c r="W28" s="2">
+        <f t="shared" ref="W28" si="62">W24-W27</f>
         <v>27867.814207999996</v>
       </c>
-      <c r="X26" s="2">
-        <f t="shared" ref="X26" si="61">X22-X25</f>
+      <c r="X28" s="2">
+        <f t="shared" ref="X28" si="63">X24-X27</f>
         <v>49980.257049599997</v>
       </c>
-      <c r="Y26" s="2">
-        <f t="shared" ref="Y26" si="62">Y22-Y25</f>
+      <c r="Y28" s="2">
+        <f t="shared" ref="Y28" si="64">Y24-Y27</f>
         <v>55686.330754560004</v>
       </c>
-      <c r="Z26" s="2">
-        <f t="shared" ref="Z26" si="63">Z22-Z25</f>
+      <c r="Z28" s="2">
+        <f t="shared" ref="Z28" si="65">Z24-Z27</f>
         <v>61991.333750016012</v>
       </c>
-      <c r="AA26" s="2">
-        <f t="shared" ref="AA26:AB26" si="64">AA22-AA25</f>
+      <c r="AA28" s="2">
+        <f t="shared" ref="AA28:AB28" si="66">AA24-AA27</f>
         <v>68956.291841817612</v>
       </c>
-      <c r="AB26" s="2">
-        <f t="shared" si="64"/>
+      <c r="AB28" s="2">
+        <f t="shared" si="66"/>
         <v>71980.029417314319</v>
       </c>
-      <c r="AC26" s="2">
-        <f t="shared" ref="AC26" si="65">AC22-AC25</f>
+      <c r="AC28" s="2">
+        <f t="shared" ref="AC28" si="67">AC24-AC27</f>
         <v>75130.026213867372</v>
       </c>
-      <c r="AD26" s="2">
-        <f t="shared" ref="AD26" si="66">AD22-AD25</f>
+      <c r="AD28" s="2">
+        <f t="shared" ref="AD28" si="68">AD24-AD27</f>
         <v>78411.438794679765</v>
       </c>
-      <c r="AE26" s="2">
-        <f t="shared" ref="AE26" si="67">AE22-AE25</f>
+      <c r="AE28" s="2">
+        <f t="shared" ref="AE28" si="69">AE24-AE27</f>
         <v>81829.632109369806</v>
       </c>
-      <c r="AF26" s="2">
-        <f t="shared" ref="AF26" si="68">AF22-AF25</f>
+      <c r="AF28" s="2">
+        <f t="shared" ref="AF28" si="70">AF24-AF27</f>
         <v>85390.18787190548</v>
       </c>
     </row>
-    <row r="27" spans="1:126" x14ac:dyDescent="0.2">
-      <c r="B27" s="2" t="s">
+    <row r="29" spans="1:126" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C29" s="2">
         <v>-36</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D29" s="2">
         <v>37</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E29" s="2">
         <v>23</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F29" s="2">
         <f>-94+215</f>
         <v>121</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G29" s="2">
         <v>27</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H29" s="2">
         <v>200</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I29" s="2">
         <v>-62</v>
       </c>
-      <c r="J27" s="2">
+      <c r="J29" s="2">
         <f>-180.4+70</f>
         <v>-110.4</v>
       </c>
-      <c r="K27" s="2">
+      <c r="K29" s="2">
         <v>-239</v>
       </c>
-      <c r="L27" s="2">
+      <c r="L29" s="2">
         <v>91</v>
       </c>
-      <c r="M27" s="2">
-        <f>L38*$AI$32/4</f>
+      <c r="M29" s="2">
+        <f>L40*$AI$34/4</f>
         <v>-17.414999999999999</v>
       </c>
-      <c r="N27" s="2">
-        <f>M38*$AI$32/4</f>
+      <c r="N29" s="2">
+        <f>M40*$AI$34/4</f>
         <v>12.895929809999998</v>
       </c>
-      <c r="P27" s="2">
+      <c r="P29" s="2">
         <v>-146</v>
       </c>
-      <c r="Q27" s="2">
+      <c r="Q29" s="2">
         <v>-292</v>
       </c>
-      <c r="R27" s="2">
+      <c r="R29" s="2">
         <v>-1172</v>
       </c>
-      <c r="S27" s="2">
+      <c r="S29" s="2">
         <v>202</v>
       </c>
-      <c r="T27" s="2">
+      <c r="T29" s="2">
         <v>321</v>
       </c>
-      <c r="U27" s="2">
+      <c r="U29" s="2">
         <v>-97</v>
       </c>
-      <c r="V27" s="2">
+      <c r="V29" s="2">
         <v>219</v>
-      </c>
-      <c r="W27" s="2">
-        <f>SUM(K27:N27)</f>
-        <v>-152.51907018999998</v>
-      </c>
-      <c r="X27" s="2">
-        <f t="shared" ref="X27:AF27" si="69">W38*$AI$32</f>
-        <v>182.12518123252201</v>
-      </c>
-      <c r="Y27" s="2">
-        <f t="shared" si="69"/>
-        <v>994.75577337200889</v>
-      </c>
-      <c r="Z27" s="2">
-        <f t="shared" si="69"/>
-        <v>1912.9893751245074</v>
-      </c>
-      <c r="AA27" s="2">
-        <f t="shared" si="69"/>
-        <v>2948.239409751784</v>
-      </c>
-      <c r="AB27" s="2">
-        <f t="shared" si="69"/>
-        <v>4113.0928160272078</v>
-      </c>
-      <c r="AC27" s="2">
-        <f t="shared" si="69"/>
-        <v>5345.8013962073401</v>
-      </c>
-      <c r="AD27" s="2">
-        <f t="shared" si="69"/>
-        <v>6649.5098034905504</v>
-      </c>
-      <c r="AE27" s="2">
-        <f t="shared" si="69"/>
-        <v>8027.4971707809091</v>
-      </c>
-      <c r="AF27" s="2">
-        <f t="shared" si="69"/>
-        <v>9483.1826651193514</v>
-      </c>
-    </row>
-    <row r="28" spans="1:126" x14ac:dyDescent="0.2">
-      <c r="B28" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C28" s="2">
-        <f t="shared" ref="C28" si="70">C26+C27</f>
-        <v>1563</v>
-      </c>
-      <c r="D28" s="2">
-        <f t="shared" ref="D28" si="71">D26+D27</f>
-        <v>2260</v>
-      </c>
-      <c r="E28" s="2">
-        <f t="shared" ref="E28:F28" si="72">E26+E27</f>
-        <v>3449</v>
-      </c>
-      <c r="F28" s="2">
-        <f t="shared" si="72"/>
-        <v>3198.3999999999996</v>
-      </c>
-      <c r="G28" s="2">
-        <f t="shared" ref="G28:L28" si="73">G26+G27</f>
-        <v>2646</v>
-      </c>
-      <c r="H28" s="2">
-        <f t="shared" ref="H28:J28" si="74">H26+H27</f>
-        <v>4505</v>
-      </c>
-      <c r="I28" s="2">
-        <f t="shared" si="74"/>
-        <v>4372</v>
-      </c>
-      <c r="J28" s="2">
-        <f t="shared" si="74"/>
-        <v>5571.6</v>
-      </c>
-      <c r="K28" s="2">
-        <f t="shared" si="73"/>
-        <v>5062</v>
-      </c>
-      <c r="L28" s="2">
-        <f t="shared" si="73"/>
-        <v>7111</v>
-      </c>
-      <c r="M28" s="2">
-        <f t="shared" ref="M28:R28" si="75">M26+M27</f>
-        <v>7484.1801999999998</v>
-      </c>
-      <c r="N28" s="2">
-        <f t="shared" si="75"/>
-        <v>8058.1149378099999</v>
-      </c>
-      <c r="P28" s="2">
-        <f t="shared" ref="P28" si="76">P26+P27</f>
-        <v>5639</v>
-      </c>
-      <c r="Q28" s="2">
-        <f t="shared" ref="Q28" si="77">Q26+Q27</f>
-        <v>5498</v>
-      </c>
-      <c r="R28" s="2">
-        <f t="shared" si="75"/>
-        <v>5678</v>
-      </c>
-      <c r="S28" s="2">
-        <f t="shared" ref="S28" si="78">S26+S27</f>
-        <v>7749</v>
-      </c>
-      <c r="T28" s="2">
-        <f t="shared" ref="T28" si="79">T26+T27</f>
-        <v>8601</v>
-      </c>
-      <c r="U28" s="2">
-        <f t="shared" ref="U28" si="80">U26+U27</f>
-        <v>10230.400000000001</v>
-      </c>
-      <c r="V28" s="2">
-        <f t="shared" ref="V28" si="81">V26+V27</f>
-        <v>17258.5</v>
-      </c>
-      <c r="W28" s="2">
-        <f t="shared" ref="W28" si="82">W26+W27</f>
-        <v>27715.295137809997</v>
-      </c>
-      <c r="X28" s="2">
-        <f t="shared" ref="X28" si="83">X26+X27</f>
-        <v>50162.382230832518</v>
-      </c>
-      <c r="Y28" s="2">
-        <f t="shared" ref="Y28" si="84">Y26+Y27</f>
-        <v>56681.086527932013</v>
-      </c>
-      <c r="Z28" s="2">
-        <f t="shared" ref="Z28" si="85">Z26+Z27</f>
-        <v>63904.323125140523</v>
-      </c>
-      <c r="AA28" s="2">
-        <f t="shared" ref="AA28:AB28" si="86">AA26+AA27</f>
-        <v>71904.531251569395</v>
-      </c>
-      <c r="AB28" s="2">
-        <f t="shared" si="86"/>
-        <v>76093.122233341521</v>
-      </c>
-      <c r="AC28" s="2">
-        <f t="shared" ref="AC28" si="87">AC26+AC27</f>
-        <v>80475.827610074717</v>
-      </c>
-      <c r="AD28" s="2">
-        <f t="shared" ref="AD28" si="88">AD26+AD27</f>
-        <v>85060.948598170318</v>
-      </c>
-      <c r="AE28" s="2">
-        <f t="shared" ref="AE28" si="89">AE26+AE27</f>
-        <v>89857.129280150722</v>
-      </c>
-      <c r="AF28" s="2">
-        <f t="shared" ref="AF28" si="90">AF26+AF27</f>
-        <v>94873.370537024835</v>
-      </c>
-    </row>
-    <row r="29" spans="1:126" x14ac:dyDescent="0.2">
-      <c r="B29" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="2">
-        <v>185</v>
-      </c>
-      <c r="D29" s="2">
-        <v>326</v>
-      </c>
-      <c r="E29" s="2">
-        <v>485</v>
-      </c>
-      <c r="F29" s="2">
-        <v>320</v>
-      </c>
-      <c r="G29" s="2">
-        <v>293</v>
-      </c>
-      <c r="H29" s="2">
-        <v>550</v>
-      </c>
-      <c r="I29" s="2">
-        <v>618</v>
-      </c>
-      <c r="J29" s="2">
-        <v>629</v>
-      </c>
-      <c r="K29" s="2">
-        <v>697</v>
-      </c>
-      <c r="L29" s="2">
-        <v>1116</v>
-      </c>
-      <c r="M29" s="2">
-        <f t="shared" ref="M29:N29" si="91">M28*0.19</f>
-        <v>1421.994238</v>
-      </c>
-      <c r="N29" s="2">
-        <f t="shared" si="91"/>
-        <v>1531.0418381838999</v>
-      </c>
-      <c r="P29" s="2">
-        <v>530</v>
-      </c>
-      <c r="Q29" s="2">
-        <v>628</v>
-      </c>
-      <c r="R29" s="2">
-        <v>1036</v>
-      </c>
-      <c r="S29" s="2">
-        <v>574</v>
-      </c>
-      <c r="T29" s="2">
-        <v>562</v>
-      </c>
-      <c r="U29" s="2">
-        <v>1314</v>
-      </c>
-      <c r="V29" s="2">
-        <v>2090</v>
       </c>
       <c r="W29" s="2">
         <f>SUM(K29:N29)</f>
-        <v>4766.0360761839001</v>
+        <v>-152.51907018999998</v>
       </c>
       <c r="X29" s="2">
-        <f>X28*0.19</f>
-        <v>9530.852623858178</v>
+        <f t="shared" ref="X29:AF29" si="71">W40*$AI$34</f>
+        <v>182.12518123252201</v>
       </c>
       <c r="Y29" s="2">
-        <f t="shared" ref="Y29:AB29" si="92">Y28*0.19</f>
-        <v>10769.406440307082</v>
+        <f t="shared" si="71"/>
+        <v>994.75577337200889</v>
       </c>
       <c r="Z29" s="2">
-        <f t="shared" si="92"/>
-        <v>12141.8213937767</v>
+        <f t="shared" si="71"/>
+        <v>1912.9893751245074</v>
       </c>
       <c r="AA29" s="2">
-        <f t="shared" si="92"/>
-        <v>13661.860937798185</v>
+        <f t="shared" si="71"/>
+        <v>2948.239409751784</v>
       </c>
       <c r="AB29" s="2">
-        <f t="shared" si="92"/>
-        <v>14457.693224334889</v>
+        <f t="shared" si="71"/>
+        <v>4113.0928160272078</v>
       </c>
       <c r="AC29" s="2">
-        <f t="shared" ref="AC29" si="93">AC28*0.19</f>
-        <v>15290.407245914197</v>
+        <f t="shared" si="71"/>
+        <v>5345.8013962073401</v>
       </c>
       <c r="AD29" s="2">
-        <f t="shared" ref="AD29" si="94">AD28*0.19</f>
-        <v>16161.580233652361</v>
+        <f t="shared" si="71"/>
+        <v>6649.5098034905504</v>
       </c>
       <c r="AE29" s="2">
-        <f t="shared" ref="AE29" si="95">AE28*0.19</f>
-        <v>17072.854563228637</v>
+        <f t="shared" si="71"/>
+        <v>8027.4971707809091</v>
       </c>
       <c r="AF29" s="2">
-        <f t="shared" ref="AF29" si="96">AF28*0.19</f>
-        <v>18025.940402034717</v>
+        <f t="shared" si="71"/>
+        <v>9483.1826651193514</v>
       </c>
     </row>
     <row r="30" spans="1:126" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C30" s="2">
-        <f t="shared" ref="C30" si="97">C28-C29</f>
-        <v>1378</v>
+        <f t="shared" ref="C30" si="72">C28+C29</f>
+        <v>1563</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" ref="D30" si="98">D28-D29</f>
-        <v>1934</v>
+        <f t="shared" ref="D30" si="73">D28+D29</f>
+        <v>2260</v>
       </c>
       <c r="E30" s="2">
-        <f t="shared" ref="E30:F30" si="99">E28-E29</f>
-        <v>2964</v>
+        <f t="shared" ref="E30:F30" si="74">E28+E29</f>
+        <v>3449</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" si="99"/>
-        <v>2878.3999999999996</v>
+        <f t="shared" si="74"/>
+        <v>3198.3999999999996</v>
       </c>
       <c r="G30" s="2">
-        <f t="shared" ref="G30:L30" si="100">G28-G29</f>
-        <v>2353</v>
+        <f t="shared" ref="G30:L30" si="75">G28+G29</f>
+        <v>2646</v>
       </c>
       <c r="H30" s="2">
-        <f t="shared" ref="H30:J30" si="101">H28-H29</f>
-        <v>3955</v>
+        <f t="shared" ref="H30:J30" si="76">H28+H29</f>
+        <v>4505</v>
       </c>
       <c r="I30" s="2">
-        <f t="shared" si="101"/>
-        <v>3754</v>
+        <f t="shared" si="76"/>
+        <v>4372</v>
       </c>
       <c r="J30" s="2">
-        <f t="shared" si="101"/>
-        <v>4942.6000000000004</v>
+        <f t="shared" si="76"/>
+        <v>5571.6</v>
       </c>
       <c r="K30" s="2">
-        <f t="shared" si="100"/>
-        <v>4365</v>
+        <f t="shared" si="75"/>
+        <v>5062</v>
       </c>
       <c r="L30" s="2">
-        <f t="shared" si="100"/>
-        <v>5995</v>
+        <f t="shared" si="75"/>
+        <v>7111</v>
       </c>
       <c r="M30" s="2">
-        <f t="shared" ref="M30:R30" si="102">M28-M29</f>
-        <v>6062.1859619999996</v>
+        <f t="shared" ref="M30:R30" si="77">M28+M29</f>
+        <v>7484.1801999999998</v>
       </c>
       <c r="N30" s="2">
-        <f t="shared" si="102"/>
-        <v>6527.0730996261</v>
+        <f t="shared" si="77"/>
+        <v>8058.1149378099999</v>
       </c>
       <c r="P30" s="2">
-        <f t="shared" ref="P30" si="103">P28-P29</f>
-        <v>5109</v>
+        <f t="shared" ref="P30" si="78">P28+P29</f>
+        <v>5639</v>
       </c>
       <c r="Q30" s="2">
-        <f t="shared" ref="Q30" si="104">Q28-Q29</f>
-        <v>4870</v>
+        <f t="shared" ref="Q30" si="79">Q28+Q29</f>
+        <v>5498</v>
       </c>
       <c r="R30" s="2">
-        <f t="shared" si="102"/>
-        <v>4642</v>
+        <f t="shared" si="77"/>
+        <v>5678</v>
       </c>
       <c r="S30" s="2">
-        <f t="shared" ref="S30" si="105">S28-S29</f>
-        <v>7175</v>
+        <f t="shared" ref="S30" si="80">S28+S29</f>
+        <v>7749</v>
       </c>
       <c r="T30" s="2">
-        <f t="shared" ref="T30" si="106">T28-T29</f>
-        <v>8039</v>
+        <f t="shared" ref="T30" si="81">T28+T29</f>
+        <v>8601</v>
       </c>
       <c r="U30" s="2">
-        <f t="shared" ref="U30" si="107">U28-U29</f>
-        <v>8916.4000000000015</v>
+        <f t="shared" ref="U30" si="82">U28+U29</f>
+        <v>10230.400000000001</v>
       </c>
       <c r="V30" s="2">
-        <f t="shared" ref="V30" si="108">V28-V29</f>
-        <v>15168.5</v>
+        <f t="shared" ref="V30" si="83">V28+V29</f>
+        <v>17258.5</v>
       </c>
       <c r="W30" s="2">
-        <f t="shared" ref="W30" si="109">W28-W29</f>
-        <v>22949.259061626097</v>
+        <f t="shared" ref="W30" si="84">W28+W29</f>
+        <v>27715.295137809997</v>
       </c>
       <c r="X30" s="2">
-        <f t="shared" ref="X30" si="110">X28-X29</f>
-        <v>40631.529606974342</v>
+        <f t="shared" ref="X30" si="85">X28+X29</f>
+        <v>50162.382230832518</v>
       </c>
       <c r="Y30" s="2">
-        <f t="shared" ref="Y30" si="111">Y28-Y29</f>
-        <v>45911.680087624933</v>
+        <f t="shared" ref="Y30" si="86">Y28+Y29</f>
+        <v>56681.086527932013</v>
       </c>
       <c r="Z30" s="2">
-        <f t="shared" ref="Z30" si="112">Z28-Z29</f>
-        <v>51762.501731363824</v>
+        <f t="shared" ref="Z30" si="87">Z28+Z29</f>
+        <v>63904.323125140523</v>
       </c>
       <c r="AA30" s="2">
-        <f t="shared" ref="AA30:AB30" si="113">AA28-AA29</f>
-        <v>58242.67031377121</v>
+        <f t="shared" ref="AA30:AB30" si="88">AA28+AA29</f>
+        <v>71904.531251569395</v>
       </c>
       <c r="AB30" s="2">
-        <f t="shared" si="113"/>
-        <v>61635.429009006635</v>
+        <f t="shared" si="88"/>
+        <v>76093.122233341521</v>
       </c>
       <c r="AC30" s="2">
-        <f t="shared" ref="AC30" si="114">AC28-AC29</f>
-        <v>65185.42036416052</v>
+        <f t="shared" ref="AC30" si="89">AC28+AC29</f>
+        <v>80475.827610074717</v>
       </c>
       <c r="AD30" s="2">
-        <f t="shared" ref="AD30" si="115">AD28-AD29</f>
-        <v>68899.368364517955</v>
+        <f t="shared" ref="AD30" si="90">AD28+AD29</f>
+        <v>85060.948598170318</v>
       </c>
       <c r="AE30" s="2">
-        <f t="shared" ref="AE30" si="116">AE28-AE29</f>
-        <v>72784.274716922082</v>
+        <f t="shared" ref="AE30" si="91">AE28+AE29</f>
+        <v>89857.129280150722</v>
       </c>
       <c r="AF30" s="2">
-        <f t="shared" ref="AF30" si="117">AF28-AF29</f>
-        <v>76847.430134990122</v>
-      </c>
-      <c r="AG30" s="2">
-        <f t="shared" ref="AG30:BL30" si="118">AF30*(1+$AI$33)</f>
-        <v>76078.955833640226</v>
-      </c>
-      <c r="AH30" s="2">
-        <f t="shared" si="118"/>
-        <v>75318.166275303825</v>
-      </c>
-      <c r="AI30" s="2">
-        <f t="shared" si="118"/>
-        <v>74564.98461255079</v>
-      </c>
-      <c r="AJ30" s="2">
-        <f t="shared" si="118"/>
-        <v>73819.33476642528</v>
-      </c>
-      <c r="AK30" s="2">
-        <f t="shared" si="118"/>
-        <v>73081.141418761021</v>
-      </c>
-      <c r="AL30" s="2">
-        <f t="shared" si="118"/>
-        <v>72350.330004573407</v>
-      </c>
-      <c r="AM30" s="2">
-        <f t="shared" si="118"/>
-        <v>71626.826704527673</v>
-      </c>
-      <c r="AN30" s="2">
-        <f t="shared" si="118"/>
-        <v>70910.558437482396</v>
-      </c>
-      <c r="AO30" s="2">
-        <f t="shared" si="118"/>
-        <v>70201.452853107578</v>
-      </c>
-      <c r="AP30" s="2">
-        <f t="shared" si="118"/>
-        <v>69499.438324576506</v>
-      </c>
-      <c r="AQ30" s="2">
-        <f t="shared" si="118"/>
-        <v>68804.443941330741</v>
-      </c>
-      <c r="AR30" s="2">
-        <f t="shared" si="118"/>
-        <v>68116.399501917433</v>
-      </c>
-      <c r="AS30" s="2">
-        <f t="shared" si="118"/>
-        <v>67435.235506898258</v>
-      </c>
-      <c r="AT30" s="2">
-        <f t="shared" si="118"/>
-        <v>66760.883151829272</v>
-      </c>
-      <c r="AU30" s="2">
-        <f t="shared" si="118"/>
-        <v>66093.274320310971</v>
-      </c>
-      <c r="AV30" s="2">
-        <f t="shared" si="118"/>
-        <v>65432.341577107858</v>
-      </c>
-      <c r="AW30" s="2">
-        <f t="shared" si="118"/>
-        <v>64778.018161336782</v>
-      </c>
-      <c r="AX30" s="2">
-        <f t="shared" si="118"/>
-        <v>64130.237979723417</v>
-      </c>
-      <c r="AY30" s="2">
-        <f t="shared" si="118"/>
-        <v>63488.935599926182</v>
-      </c>
-      <c r="AZ30" s="2">
-        <f t="shared" si="118"/>
-        <v>62854.046243926918</v>
-      </c>
-      <c r="BA30" s="2">
-        <f t="shared" si="118"/>
-        <v>62225.505781487649</v>
-      </c>
-      <c r="BB30" s="2">
-        <f t="shared" si="118"/>
-        <v>61603.250723672769</v>
-      </c>
-      <c r="BC30" s="2">
-        <f t="shared" si="118"/>
-        <v>60987.218216436042</v>
-      </c>
-      <c r="BD30" s="2">
-        <f t="shared" si="118"/>
-        <v>60377.346034271679</v>
-      </c>
-      <c r="BE30" s="2">
-        <f t="shared" si="118"/>
-        <v>59773.572573928963</v>
-      </c>
-      <c r="BF30" s="2">
-        <f t="shared" si="118"/>
-        <v>59175.836848189676</v>
-      </c>
-      <c r="BG30" s="2">
-        <f t="shared" si="118"/>
-        <v>58584.078479707779</v>
-      </c>
-      <c r="BH30" s="2">
-        <f t="shared" si="118"/>
-        <v>57998.237694910698</v>
-      </c>
-      <c r="BI30" s="2">
-        <f t="shared" si="118"/>
-        <v>57418.255317961593</v>
-      </c>
-      <c r="BJ30" s="2">
-        <f t="shared" si="118"/>
-        <v>56844.07276478198</v>
-      </c>
-      <c r="BK30" s="2">
-        <f t="shared" si="118"/>
-        <v>56275.632037134157</v>
-      </c>
-      <c r="BL30" s="2">
-        <f t="shared" si="118"/>
-        <v>55712.875716762814</v>
-      </c>
-      <c r="BM30" s="2">
-        <f t="shared" ref="BM30:CR30" si="119">BL30*(1+$AI$33)</f>
-        <v>55155.746959595184</v>
-      </c>
-      <c r="BN30" s="2">
-        <f t="shared" si="119"/>
-        <v>54604.189489999233</v>
-      </c>
-      <c r="BO30" s="2">
-        <f t="shared" si="119"/>
-        <v>54058.147595099239</v>
-      </c>
-      <c r="BP30" s="2">
-        <f t="shared" si="119"/>
-        <v>53517.566119148243</v>
-      </c>
-      <c r="BQ30" s="2">
-        <f t="shared" si="119"/>
-        <v>52982.390457956761</v>
-      </c>
-      <c r="BR30" s="2">
-        <f t="shared" si="119"/>
-        <v>52452.56655337719</v>
-      </c>
-      <c r="BS30" s="2">
-        <f t="shared" si="119"/>
-        <v>51928.040887843417</v>
-      </c>
-      <c r="BT30" s="2">
-        <f t="shared" si="119"/>
-        <v>51408.760478964985</v>
-      </c>
-      <c r="BU30" s="2">
-        <f t="shared" si="119"/>
-        <v>50894.672874175332</v>
-      </c>
-      <c r="BV30" s="2">
-        <f t="shared" si="119"/>
-        <v>50385.726145433575</v>
-      </c>
-      <c r="BW30" s="2">
-        <f t="shared" si="119"/>
-        <v>49881.868883979238</v>
-      </c>
-      <c r="BX30" s="2">
-        <f t="shared" si="119"/>
-        <v>49383.050195139447</v>
-      </c>
-      <c r="BY30" s="2">
-        <f t="shared" si="119"/>
-        <v>48889.219693188053</v>
-      </c>
-      <c r="BZ30" s="2">
-        <f t="shared" si="119"/>
-        <v>48400.32749625617</v>
-      </c>
-      <c r="CA30" s="2">
-        <f t="shared" si="119"/>
-        <v>47916.324221293609</v>
-      </c>
-      <c r="CB30" s="2">
-        <f t="shared" si="119"/>
-        <v>47437.160979080676</v>
-      </c>
-      <c r="CC30" s="2">
-        <f t="shared" si="119"/>
-        <v>46962.789369289872</v>
-      </c>
-      <c r="CD30" s="2">
-        <f t="shared" si="119"/>
-        <v>46493.161475596971</v>
-      </c>
-      <c r="CE30" s="2">
-        <f t="shared" si="119"/>
-        <v>46028.229860840998</v>
-      </c>
-      <c r="CF30" s="2">
-        <f t="shared" si="119"/>
-        <v>45567.947562232584</v>
-      </c>
-      <c r="CG30" s="2">
-        <f t="shared" si="119"/>
-        <v>45112.26808661026</v>
-      </c>
-      <c r="CH30" s="2">
-        <f t="shared" si="119"/>
-        <v>44661.145405744159</v>
-      </c>
-      <c r="CI30" s="2">
-        <f t="shared" si="119"/>
-        <v>44214.533951686717</v>
-      </c>
-      <c r="CJ30" s="2">
-        <f t="shared" si="119"/>
-        <v>43772.388612169852</v>
-      </c>
-      <c r="CK30" s="2">
-        <f t="shared" si="119"/>
-        <v>43334.664726048155</v>
-      </c>
-      <c r="CL30" s="2">
-        <f t="shared" si="119"/>
-        <v>42901.31807878767</v>
-      </c>
-      <c r="CM30" s="2">
-        <f t="shared" si="119"/>
-        <v>42472.304897999791</v>
-      </c>
-      <c r="CN30" s="2">
-        <f t="shared" si="119"/>
-        <v>42047.581849019793</v>
-      </c>
-      <c r="CO30" s="2">
-        <f t="shared" si="119"/>
-        <v>41627.106030529598</v>
-      </c>
-      <c r="CP30" s="2">
-        <f t="shared" si="119"/>
-        <v>41210.834970224299</v>
-      </c>
-      <c r="CQ30" s="2">
-        <f t="shared" si="119"/>
-        <v>40798.726620522059</v>
-      </c>
-      <c r="CR30" s="2">
-        <f t="shared" si="119"/>
-        <v>40390.739354316836</v>
-      </c>
-      <c r="CS30" s="2">
-        <f t="shared" ref="CS30:DV30" si="120">CR30*(1+$AI$33)</f>
-        <v>39986.83196077367</v>
-      </c>
-      <c r="CT30" s="2">
-        <f t="shared" si="120"/>
-        <v>39586.96364116593</v>
-      </c>
-      <c r="CU30" s="2">
-        <f t="shared" si="120"/>
-        <v>39191.094004754268</v>
-      </c>
-      <c r="CV30" s="2">
-        <f t="shared" si="120"/>
-        <v>38799.183064706725</v>
-      </c>
-      <c r="CW30" s="2">
-        <f t="shared" si="120"/>
-        <v>38411.191234059661</v>
-      </c>
-      <c r="CX30" s="2">
-        <f t="shared" si="120"/>
-        <v>38027.079321719066</v>
-      </c>
-      <c r="CY30" s="2">
-        <f t="shared" si="120"/>
-        <v>37646.808528501875</v>
-      </c>
-      <c r="CZ30" s="2">
-        <f t="shared" si="120"/>
-        <v>37270.340443216854</v>
-      </c>
-      <c r="DA30" s="2">
-        <f t="shared" si="120"/>
-        <v>36897.637038784684</v>
-      </c>
-      <c r="DB30" s="2">
-        <f t="shared" si="120"/>
-        <v>36528.660668396835</v>
-      </c>
-      <c r="DC30" s="2">
-        <f t="shared" si="120"/>
-        <v>36163.374061712864</v>
-      </c>
-      <c r="DD30" s="2">
-        <f t="shared" si="120"/>
-        <v>35801.740321095735</v>
-      </c>
-      <c r="DE30" s="2">
-        <f t="shared" si="120"/>
-        <v>35443.722917884777</v>
-      </c>
-      <c r="DF30" s="2">
-        <f t="shared" si="120"/>
-        <v>35089.285688705932</v>
-      </c>
-      <c r="DG30" s="2">
-        <f t="shared" si="120"/>
-        <v>34738.39283181887</v>
-      </c>
-      <c r="DH30" s="2">
-        <f t="shared" si="120"/>
-        <v>34391.008903500682</v>
-      </c>
-      <c r="DI30" s="2">
-        <f t="shared" si="120"/>
-        <v>34047.098814465673</v>
-      </c>
-      <c r="DJ30" s="2">
-        <f t="shared" si="120"/>
-        <v>33706.627826321019</v>
-      </c>
-      <c r="DK30" s="2">
-        <f t="shared" si="120"/>
-        <v>33369.561548057805</v>
-      </c>
-      <c r="DL30" s="2">
-        <f t="shared" si="120"/>
-        <v>33035.865932577224</v>
-      </c>
-      <c r="DM30" s="2">
-        <f t="shared" si="120"/>
-        <v>32705.507273251453</v>
-      </c>
-      <c r="DN30" s="2">
-        <f t="shared" si="120"/>
-        <v>32378.452200518939</v>
-      </c>
-      <c r="DO30" s="2">
-        <f t="shared" si="120"/>
-        <v>32054.66767851375</v>
-      </c>
-      <c r="DP30" s="2">
-        <f t="shared" si="120"/>
-        <v>31734.12100172861</v>
-      </c>
-      <c r="DQ30" s="2">
-        <f t="shared" si="120"/>
-        <v>31416.779791711324</v>
-      </c>
-      <c r="DR30" s="2">
-        <f t="shared" si="120"/>
-        <v>31102.611993794209</v>
-      </c>
-      <c r="DS30" s="2">
-        <f t="shared" si="120"/>
-        <v>30791.585873856267</v>
-      </c>
-      <c r="DT30" s="2">
-        <f t="shared" si="120"/>
-        <v>30483.670015117703</v>
-      </c>
-      <c r="DU30" s="2">
-        <f t="shared" si="120"/>
-        <v>30178.833314966527</v>
-      </c>
-      <c r="DV30" s="2">
-        <f t="shared" si="120"/>
-        <v>29877.04498181686</v>
+        <f t="shared" ref="AF30" si="92">AF28+AF29</f>
+        <v>94873.370537024835</v>
       </c>
     </row>
     <row r="31" spans="1:126" x14ac:dyDescent="0.2">
       <c r="B31" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="2">
+        <v>185</v>
+      </c>
+      <c r="D31" s="2">
+        <v>326</v>
+      </c>
+      <c r="E31" s="2">
+        <v>485</v>
+      </c>
+      <c r="F31" s="2">
+        <v>320</v>
+      </c>
+      <c r="G31" s="2">
+        <v>293</v>
+      </c>
+      <c r="H31" s="2">
+        <v>550</v>
+      </c>
+      <c r="I31" s="2">
+        <v>618</v>
+      </c>
+      <c r="J31" s="2">
+        <v>629</v>
+      </c>
+      <c r="K31" s="2">
+        <v>697</v>
+      </c>
+      <c r="L31" s="2">
+        <v>1116</v>
+      </c>
+      <c r="M31" s="2">
+        <f t="shared" ref="M31:N31" si="93">M30*0.19</f>
+        <v>1421.994238</v>
+      </c>
+      <c r="N31" s="2">
+        <f t="shared" si="93"/>
+        <v>1531.0418381838999</v>
+      </c>
+      <c r="P31" s="2">
+        <v>530</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>628</v>
+      </c>
+      <c r="R31" s="2">
+        <v>1036</v>
+      </c>
+      <c r="S31" s="2">
+        <v>574</v>
+      </c>
+      <c r="T31" s="2">
+        <v>562</v>
+      </c>
+      <c r="U31" s="2">
+        <v>1314</v>
+      </c>
+      <c r="V31" s="2">
+        <v>2090</v>
+      </c>
+      <c r="W31" s="2">
+        <f>SUM(K31:N31)</f>
+        <v>4766.0360761839001</v>
+      </c>
+      <c r="X31" s="2">
+        <f>X30*0.19</f>
+        <v>9530.852623858178</v>
+      </c>
+      <c r="Y31" s="2">
+        <f t="shared" ref="Y31:AB31" si="94">Y30*0.19</f>
+        <v>10769.406440307082</v>
+      </c>
+      <c r="Z31" s="2">
+        <f t="shared" si="94"/>
+        <v>12141.8213937767</v>
+      </c>
+      <c r="AA31" s="2">
+        <f t="shared" si="94"/>
+        <v>13661.860937798185</v>
+      </c>
+      <c r="AB31" s="2">
+        <f t="shared" si="94"/>
+        <v>14457.693224334889</v>
+      </c>
+      <c r="AC31" s="2">
+        <f t="shared" ref="AC31" si="95">AC30*0.19</f>
+        <v>15290.407245914197</v>
+      </c>
+      <c r="AD31" s="2">
+        <f t="shared" ref="AD31" si="96">AD30*0.19</f>
+        <v>16161.580233652361</v>
+      </c>
+      <c r="AE31" s="2">
+        <f t="shared" ref="AE31" si="97">AE30*0.19</f>
+        <v>17072.854563228637</v>
+      </c>
+      <c r="AF31" s="2">
+        <f t="shared" ref="AF31" si="98">AF30*0.19</f>
+        <v>18025.940402034717</v>
+      </c>
+    </row>
+    <row r="32" spans="1:126" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="2">
+        <f t="shared" ref="C32" si="99">C30-C31</f>
+        <v>1378</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" ref="D32" si="100">D30-D31</f>
+        <v>1934</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" ref="E32:F32" si="101">E30-E31</f>
+        <v>2964</v>
+      </c>
+      <c r="F32" s="2">
+        <f t="shared" si="101"/>
+        <v>2878.3999999999996</v>
+      </c>
+      <c r="G32" s="2">
+        <f t="shared" ref="G32:L32" si="102">G30-G31</f>
+        <v>2353</v>
+      </c>
+      <c r="H32" s="2">
+        <f t="shared" ref="H32:J32" si="103">H30-H31</f>
+        <v>3955</v>
+      </c>
+      <c r="I32" s="2">
+        <f t="shared" si="103"/>
+        <v>3754</v>
+      </c>
+      <c r="J32" s="2">
+        <f t="shared" si="103"/>
+        <v>4942.6000000000004</v>
+      </c>
+      <c r="K32" s="2">
+        <f t="shared" si="102"/>
+        <v>4365</v>
+      </c>
+      <c r="L32" s="2">
+        <f t="shared" si="102"/>
+        <v>5995</v>
+      </c>
+      <c r="M32" s="2">
+        <f t="shared" ref="M32:R32" si="104">M30-M31</f>
+        <v>6062.1859619999996</v>
+      </c>
+      <c r="N32" s="2">
+        <f t="shared" si="104"/>
+        <v>6527.0730996261</v>
+      </c>
+      <c r="P32" s="2">
+        <f t="shared" ref="P32" si="105">P30-P31</f>
+        <v>5109</v>
+      </c>
+      <c r="Q32" s="2">
+        <f t="shared" ref="Q32" si="106">Q30-Q31</f>
+        <v>4870</v>
+      </c>
+      <c r="R32" s="2">
+        <f t="shared" si="104"/>
+        <v>4642</v>
+      </c>
+      <c r="S32" s="2">
+        <f t="shared" ref="S32" si="107">S30-S31</f>
+        <v>7175</v>
+      </c>
+      <c r="T32" s="2">
+        <f t="shared" ref="T32" si="108">T30-T31</f>
+        <v>8039</v>
+      </c>
+      <c r="U32" s="2">
+        <f t="shared" ref="U32" si="109">U30-U31</f>
+        <v>8916.4000000000015</v>
+      </c>
+      <c r="V32" s="2">
+        <f t="shared" ref="V32" si="110">V30-V31</f>
+        <v>15168.5</v>
+      </c>
+      <c r="W32" s="2">
+        <f t="shared" ref="W32" si="111">W30-W31</f>
+        <v>22949.259061626097</v>
+      </c>
+      <c r="X32" s="2">
+        <f t="shared" ref="X32" si="112">X30-X31</f>
+        <v>40631.529606974342</v>
+      </c>
+      <c r="Y32" s="2">
+        <f t="shared" ref="Y32" si="113">Y30-Y31</f>
+        <v>45911.680087624933</v>
+      </c>
+      <c r="Z32" s="2">
+        <f t="shared" ref="Z32" si="114">Z30-Z31</f>
+        <v>51762.501731363824</v>
+      </c>
+      <c r="AA32" s="2">
+        <f t="shared" ref="AA32:AB32" si="115">AA30-AA31</f>
+        <v>58242.67031377121</v>
+      </c>
+      <c r="AB32" s="2">
+        <f t="shared" si="115"/>
+        <v>61635.429009006635</v>
+      </c>
+      <c r="AC32" s="2">
+        <f t="shared" ref="AC32" si="116">AC30-AC31</f>
+        <v>65185.42036416052</v>
+      </c>
+      <c r="AD32" s="2">
+        <f t="shared" ref="AD32" si="117">AD30-AD31</f>
+        <v>68899.368364517955</v>
+      </c>
+      <c r="AE32" s="2">
+        <f t="shared" ref="AE32" si="118">AE30-AE31</f>
+        <v>72784.274716922082</v>
+      </c>
+      <c r="AF32" s="2">
+        <f t="shared" ref="AF32" si="119">AF30-AF31</f>
+        <v>76847.430134990122</v>
+      </c>
+      <c r="AG32" s="2">
+        <f t="shared" ref="AG32:BL32" si="120">AF32*(1+$AI$35)</f>
+        <v>76078.955833640226</v>
+      </c>
+      <c r="AH32" s="2">
+        <f t="shared" si="120"/>
+        <v>75318.166275303825</v>
+      </c>
+      <c r="AI32" s="2">
+        <f t="shared" si="120"/>
+        <v>74564.98461255079</v>
+      </c>
+      <c r="AJ32" s="2">
+        <f t="shared" si="120"/>
+        <v>73819.33476642528</v>
+      </c>
+      <c r="AK32" s="2">
+        <f t="shared" si="120"/>
+        <v>73081.141418761021</v>
+      </c>
+      <c r="AL32" s="2">
+        <f t="shared" si="120"/>
+        <v>72350.330004573407</v>
+      </c>
+      <c r="AM32" s="2">
+        <f t="shared" si="120"/>
+        <v>71626.826704527673</v>
+      </c>
+      <c r="AN32" s="2">
+        <f t="shared" si="120"/>
+        <v>70910.558437482396</v>
+      </c>
+      <c r="AO32" s="2">
+        <f t="shared" si="120"/>
+        <v>70201.452853107578</v>
+      </c>
+      <c r="AP32" s="2">
+        <f t="shared" si="120"/>
+        <v>69499.438324576506</v>
+      </c>
+      <c r="AQ32" s="2">
+        <f t="shared" si="120"/>
+        <v>68804.443941330741</v>
+      </c>
+      <c r="AR32" s="2">
+        <f t="shared" si="120"/>
+        <v>68116.399501917433</v>
+      </c>
+      <c r="AS32" s="2">
+        <f t="shared" si="120"/>
+        <v>67435.235506898258</v>
+      </c>
+      <c r="AT32" s="2">
+        <f t="shared" si="120"/>
+        <v>66760.883151829272</v>
+      </c>
+      <c r="AU32" s="2">
+        <f t="shared" si="120"/>
+        <v>66093.274320310971</v>
+      </c>
+      <c r="AV32" s="2">
+        <f t="shared" si="120"/>
+        <v>65432.341577107858</v>
+      </c>
+      <c r="AW32" s="2">
+        <f t="shared" si="120"/>
+        <v>64778.018161336782</v>
+      </c>
+      <c r="AX32" s="2">
+        <f t="shared" si="120"/>
+        <v>64130.237979723417</v>
+      </c>
+      <c r="AY32" s="2">
+        <f t="shared" si="120"/>
+        <v>63488.935599926182</v>
+      </c>
+      <c r="AZ32" s="2">
+        <f t="shared" si="120"/>
+        <v>62854.046243926918</v>
+      </c>
+      <c r="BA32" s="2">
+        <f t="shared" si="120"/>
+        <v>62225.505781487649</v>
+      </c>
+      <c r="BB32" s="2">
+        <f t="shared" si="120"/>
+        <v>61603.250723672769</v>
+      </c>
+      <c r="BC32" s="2">
+        <f t="shared" si="120"/>
+        <v>60987.218216436042</v>
+      </c>
+      <c r="BD32" s="2">
+        <f t="shared" si="120"/>
+        <v>60377.346034271679</v>
+      </c>
+      <c r="BE32" s="2">
+        <f t="shared" si="120"/>
+        <v>59773.572573928963</v>
+      </c>
+      <c r="BF32" s="2">
+        <f t="shared" si="120"/>
+        <v>59175.836848189676</v>
+      </c>
+      <c r="BG32" s="2">
+        <f t="shared" si="120"/>
+        <v>58584.078479707779</v>
+      </c>
+      <c r="BH32" s="2">
+        <f t="shared" si="120"/>
+        <v>57998.237694910698</v>
+      </c>
+      <c r="BI32" s="2">
+        <f t="shared" si="120"/>
+        <v>57418.255317961593</v>
+      </c>
+      <c r="BJ32" s="2">
+        <f t="shared" si="120"/>
+        <v>56844.07276478198</v>
+      </c>
+      <c r="BK32" s="2">
+        <f t="shared" si="120"/>
+        <v>56275.632037134157</v>
+      </c>
+      <c r="BL32" s="2">
+        <f t="shared" si="120"/>
+        <v>55712.875716762814</v>
+      </c>
+      <c r="BM32" s="2">
+        <f t="shared" ref="BM32:CR32" si="121">BL32*(1+$AI$35)</f>
+        <v>55155.746959595184</v>
+      </c>
+      <c r="BN32" s="2">
+        <f t="shared" si="121"/>
+        <v>54604.189489999233</v>
+      </c>
+      <c r="BO32" s="2">
+        <f t="shared" si="121"/>
+        <v>54058.147595099239</v>
+      </c>
+      <c r="BP32" s="2">
+        <f t="shared" si="121"/>
+        <v>53517.566119148243</v>
+      </c>
+      <c r="BQ32" s="2">
+        <f t="shared" si="121"/>
+        <v>52982.390457956761</v>
+      </c>
+      <c r="BR32" s="2">
+        <f t="shared" si="121"/>
+        <v>52452.56655337719</v>
+      </c>
+      <c r="BS32" s="2">
+        <f t="shared" si="121"/>
+        <v>51928.040887843417</v>
+      </c>
+      <c r="BT32" s="2">
+        <f t="shared" si="121"/>
+        <v>51408.760478964985</v>
+      </c>
+      <c r="BU32" s="2">
+        <f t="shared" si="121"/>
+        <v>50894.672874175332</v>
+      </c>
+      <c r="BV32" s="2">
+        <f t="shared" si="121"/>
+        <v>50385.726145433575</v>
+      </c>
+      <c r="BW32" s="2">
+        <f t="shared" si="121"/>
+        <v>49881.868883979238</v>
+      </c>
+      <c r="BX32" s="2">
+        <f t="shared" si="121"/>
+        <v>49383.050195139447</v>
+      </c>
+      <c r="BY32" s="2">
+        <f t="shared" si="121"/>
+        <v>48889.219693188053</v>
+      </c>
+      <c r="BZ32" s="2">
+        <f t="shared" si="121"/>
+        <v>48400.32749625617</v>
+      </c>
+      <c r="CA32" s="2">
+        <f t="shared" si="121"/>
+        <v>47916.324221293609</v>
+      </c>
+      <c r="CB32" s="2">
+        <f t="shared" si="121"/>
+        <v>47437.160979080676</v>
+      </c>
+      <c r="CC32" s="2">
+        <f t="shared" si="121"/>
+        <v>46962.789369289872</v>
+      </c>
+      <c r="CD32" s="2">
+        <f t="shared" si="121"/>
+        <v>46493.161475596971</v>
+      </c>
+      <c r="CE32" s="2">
+        <f t="shared" si="121"/>
+        <v>46028.229860840998</v>
+      </c>
+      <c r="CF32" s="2">
+        <f t="shared" si="121"/>
+        <v>45567.947562232584</v>
+      </c>
+      <c r="CG32" s="2">
+        <f t="shared" si="121"/>
+        <v>45112.26808661026</v>
+      </c>
+      <c r="CH32" s="2">
+        <f t="shared" si="121"/>
+        <v>44661.145405744159</v>
+      </c>
+      <c r="CI32" s="2">
+        <f t="shared" si="121"/>
+        <v>44214.533951686717</v>
+      </c>
+      <c r="CJ32" s="2">
+        <f t="shared" si="121"/>
+        <v>43772.388612169852</v>
+      </c>
+      <c r="CK32" s="2">
+        <f t="shared" si="121"/>
+        <v>43334.664726048155</v>
+      </c>
+      <c r="CL32" s="2">
+        <f t="shared" si="121"/>
+        <v>42901.31807878767</v>
+      </c>
+      <c r="CM32" s="2">
+        <f t="shared" si="121"/>
+        <v>42472.304897999791</v>
+      </c>
+      <c r="CN32" s="2">
+        <f t="shared" si="121"/>
+        <v>42047.581849019793</v>
+      </c>
+      <c r="CO32" s="2">
+        <f t="shared" si="121"/>
+        <v>41627.106030529598</v>
+      </c>
+      <c r="CP32" s="2">
+        <f t="shared" si="121"/>
+        <v>41210.834970224299</v>
+      </c>
+      <c r="CQ32" s="2">
+        <f t="shared" si="121"/>
+        <v>40798.726620522059</v>
+      </c>
+      <c r="CR32" s="2">
+        <f t="shared" si="121"/>
+        <v>40390.739354316836</v>
+      </c>
+      <c r="CS32" s="2">
+        <f t="shared" ref="CS32:DV32" si="122">CR32*(1+$AI$35)</f>
+        <v>39986.83196077367</v>
+      </c>
+      <c r="CT32" s="2">
+        <f t="shared" si="122"/>
+        <v>39586.96364116593</v>
+      </c>
+      <c r="CU32" s="2">
+        <f t="shared" si="122"/>
+        <v>39191.094004754268</v>
+      </c>
+      <c r="CV32" s="2">
+        <f t="shared" si="122"/>
+        <v>38799.183064706725</v>
+      </c>
+      <c r="CW32" s="2">
+        <f t="shared" si="122"/>
+        <v>38411.191234059661</v>
+      </c>
+      <c r="CX32" s="2">
+        <f t="shared" si="122"/>
+        <v>38027.079321719066</v>
+      </c>
+      <c r="CY32" s="2">
+        <f t="shared" si="122"/>
+        <v>37646.808528501875</v>
+      </c>
+      <c r="CZ32" s="2">
+        <f t="shared" si="122"/>
+        <v>37270.340443216854</v>
+      </c>
+      <c r="DA32" s="2">
+        <f t="shared" si="122"/>
+        <v>36897.637038784684</v>
+      </c>
+      <c r="DB32" s="2">
+        <f t="shared" si="122"/>
+        <v>36528.660668396835</v>
+      </c>
+      <c r="DC32" s="2">
+        <f t="shared" si="122"/>
+        <v>36163.374061712864</v>
+      </c>
+      <c r="DD32" s="2">
+        <f t="shared" si="122"/>
+        <v>35801.740321095735</v>
+      </c>
+      <c r="DE32" s="2">
+        <f t="shared" si="122"/>
+        <v>35443.722917884777</v>
+      </c>
+      <c r="DF32" s="2">
+        <f t="shared" si="122"/>
+        <v>35089.285688705932</v>
+      </c>
+      <c r="DG32" s="2">
+        <f t="shared" si="122"/>
+        <v>34738.39283181887</v>
+      </c>
+      <c r="DH32" s="2">
+        <f t="shared" si="122"/>
+        <v>34391.008903500682</v>
+      </c>
+      <c r="DI32" s="2">
+        <f t="shared" si="122"/>
+        <v>34047.098814465673</v>
+      </c>
+      <c r="DJ32" s="2">
+        <f t="shared" si="122"/>
+        <v>33706.627826321019</v>
+      </c>
+      <c r="DK32" s="2">
+        <f t="shared" si="122"/>
+        <v>33369.561548057805</v>
+      </c>
+      <c r="DL32" s="2">
+        <f t="shared" si="122"/>
+        <v>33035.865932577224</v>
+      </c>
+      <c r="DM32" s="2">
+        <f t="shared" si="122"/>
+        <v>32705.507273251453</v>
+      </c>
+      <c r="DN32" s="2">
+        <f t="shared" si="122"/>
+        <v>32378.452200518939</v>
+      </c>
+      <c r="DO32" s="2">
+        <f t="shared" si="122"/>
+        <v>32054.66767851375</v>
+      </c>
+      <c r="DP32" s="2">
+        <f t="shared" si="122"/>
+        <v>31734.12100172861</v>
+      </c>
+      <c r="DQ32" s="2">
+        <f t="shared" si="122"/>
+        <v>31416.779791711324</v>
+      </c>
+      <c r="DR32" s="2">
+        <f t="shared" si="122"/>
+        <v>31102.611993794209</v>
+      </c>
+      <c r="DS32" s="2">
+        <f t="shared" si="122"/>
+        <v>30791.585873856267</v>
+      </c>
+      <c r="DT32" s="2">
+        <f t="shared" si="122"/>
+        <v>30483.670015117703</v>
+      </c>
+      <c r="DU32" s="2">
+        <f t="shared" si="122"/>
+        <v>30178.833314966527</v>
+      </c>
+      <c r="DV32" s="2">
+        <f t="shared" si="122"/>
+        <v>29877.04498181686</v>
+      </c>
+    </row>
+    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C33" s="2">
         <v>901</v>
       </c>
-      <c r="D31" s="2">
+      <c r="D33" s="2">
         <v>900</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E33" s="2">
         <v>900</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F33" s="2">
         <v>900</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G33" s="2">
         <v>901</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H33" s="2">
         <v>901</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I33" s="2">
         <v>901</v>
       </c>
-      <c r="J31" s="2">
+      <c r="J33" s="2">
         <v>900</v>
       </c>
-      <c r="K31" s="2">
+      <c r="K33" s="2">
         <v>899</v>
       </c>
-      <c r="L31" s="2">
+      <c r="L33" s="2">
         <v>898</v>
       </c>
-      <c r="M31" s="2">
-        <f t="shared" ref="M31:N31" si="121">L31</f>
+      <c r="M33" s="2">
+        <f t="shared" ref="M33:N33" si="123">L33</f>
         <v>898</v>
       </c>
-      <c r="N31" s="2">
-        <f t="shared" si="121"/>
-        <v>898</v>
-      </c>
-      <c r="P31" s="2">
-        <v>1027.7</v>
-      </c>
-      <c r="Q31" s="2">
-        <v>931.06</v>
-      </c>
-      <c r="R31" s="2">
-        <v>907.6</v>
-      </c>
-      <c r="S31" s="2">
-        <v>907</v>
-      </c>
-      <c r="T31" s="2">
-        <v>901.74</v>
-      </c>
-      <c r="U31" s="2">
-        <v>900.2</v>
-      </c>
-      <c r="V31" s="2">
-        <v>900.6</v>
-      </c>
-      <c r="W31" s="2">
-        <f>N31</f>
-        <v>898</v>
-      </c>
-      <c r="X31" s="2">
-        <f>W31</f>
-        <v>898</v>
-      </c>
-      <c r="Y31" s="2">
-        <f t="shared" ref="Y31:AB31" si="122">X31</f>
-        <v>898</v>
-      </c>
-      <c r="Z31" s="2">
-        <f t="shared" si="122"/>
-        <v>898</v>
-      </c>
-      <c r="AA31" s="2">
-        <f t="shared" si="122"/>
-        <v>898</v>
-      </c>
-      <c r="AB31" s="2">
-        <f t="shared" si="122"/>
-        <v>898</v>
-      </c>
-      <c r="AC31" s="2">
-        <f t="shared" ref="AC31:AF31" si="123">AB31</f>
-        <v>898</v>
-      </c>
-      <c r="AD31" s="2">
+      <c r="N33" s="2">
         <f t="shared" si="123"/>
         <v>898</v>
       </c>
-      <c r="AE31" s="2">
-        <f t="shared" si="123"/>
+      <c r="P33" s="2">
+        <v>1027.7</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>931.06</v>
+      </c>
+      <c r="R33" s="2">
+        <v>907.6</v>
+      </c>
+      <c r="S33" s="2">
+        <v>907</v>
+      </c>
+      <c r="T33" s="2">
+        <v>901.74</v>
+      </c>
+      <c r="U33" s="2">
+        <v>900.2</v>
+      </c>
+      <c r="V33" s="2">
+        <v>900.6</v>
+      </c>
+      <c r="W33" s="2">
+        <f>N33</f>
         <v>898</v>
       </c>
-      <c r="AF31" s="2">
-        <f t="shared" si="123"/>
+      <c r="X33" s="2">
+        <f>W33</f>
         <v>898</v>
       </c>
-    </row>
-    <row r="32" spans="1:126" x14ac:dyDescent="0.2">
-      <c r="B32" s="2" t="s">
+      <c r="Y33" s="2">
+        <f t="shared" ref="Y33:AB33" si="124">X33</f>
+        <v>898</v>
+      </c>
+      <c r="Z33" s="2">
+        <f t="shared" si="124"/>
+        <v>898</v>
+      </c>
+      <c r="AA33" s="2">
+        <f t="shared" si="124"/>
+        <v>898</v>
+      </c>
+      <c r="AB33" s="2">
+        <f t="shared" si="124"/>
+        <v>898</v>
+      </c>
+      <c r="AC33" s="2">
+        <f t="shared" ref="AC33:AF33" si="125">AB33</f>
+        <v>898</v>
+      </c>
+      <c r="AD33" s="2">
+        <f t="shared" si="125"/>
+        <v>898</v>
+      </c>
+      <c r="AE33" s="2">
+        <f t="shared" si="125"/>
+        <v>898</v>
+      </c>
+      <c r="AF33" s="2">
+        <f t="shared" si="125"/>
+        <v>898</v>
+      </c>
+    </row>
+    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C32" s="1">
-        <f t="shared" ref="C32" si="124">C30/C31</f>
+      <c r="C34" s="1">
+        <f t="shared" ref="C34" si="126">C32/C33</f>
         <v>1.5294117647058822</v>
       </c>
-      <c r="D32" s="1">
-        <f t="shared" ref="D32" si="125">D30/D31</f>
+      <c r="D34" s="1">
+        <f t="shared" ref="D34" si="127">D32/D33</f>
         <v>2.1488888888888891</v>
       </c>
-      <c r="E32" s="1">
-        <f t="shared" ref="E32:F32" si="126">E30/E31</f>
+      <c r="E34" s="1">
+        <f t="shared" ref="E34:F34" si="128">E32/E33</f>
         <v>3.2933333333333334</v>
       </c>
-      <c r="F32" s="1">
-        <f t="shared" si="126"/>
+      <c r="F34" s="1">
+        <f t="shared" si="128"/>
         <v>3.1982222222222219</v>
       </c>
-      <c r="G32" s="1">
-        <f t="shared" ref="G32:L32" si="127">G30/G31</f>
+      <c r="G34" s="1">
+        <f t="shared" ref="G34:L34" si="129">G32/G33</f>
         <v>2.611542730299667</v>
       </c>
-      <c r="H32" s="1">
-        <f t="shared" ref="H32:J32" si="128">H30/H31</f>
+      <c r="H34" s="1">
+        <f t="shared" ref="H34:J34" si="130">H32/H33</f>
         <v>4.3895671476137625</v>
       </c>
-      <c r="I32" s="1">
-        <f t="shared" si="128"/>
+      <c r="I34" s="1">
+        <f t="shared" si="130"/>
         <v>4.1664816870144286</v>
       </c>
-      <c r="J32" s="1">
-        <f t="shared" si="128"/>
+      <c r="J34" s="1">
+        <f t="shared" si="130"/>
         <v>5.4917777777777781</v>
       </c>
-      <c r="K32" s="1">
-        <f t="shared" si="127"/>
+      <c r="K34" s="1">
+        <f t="shared" si="129"/>
         <v>4.8553948832035596</v>
       </c>
-      <c r="L32" s="1">
-        <f t="shared" si="127"/>
+      <c r="L34" s="1">
+        <f t="shared" si="129"/>
         <v>6.6759465478841875</v>
       </c>
-      <c r="M32" s="1">
-        <f t="shared" ref="M32:R32" si="129">M30/M31</f>
+      <c r="M34" s="1">
+        <f t="shared" ref="M34:R34" si="131">M32/M33</f>
         <v>6.7507638775055678</v>
       </c>
-      <c r="N32" s="1">
-        <f t="shared" si="129"/>
+      <c r="N34" s="1">
+        <f t="shared" si="131"/>
         <v>7.268455567512361</v>
       </c>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1">
-        <f t="shared" ref="P32" si="130">P30/P31</f>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1">
+        <f t="shared" ref="P34" si="132">P32/P33</f>
         <v>4.9712951250364892</v>
       </c>
-      <c r="Q32" s="1">
-        <f t="shared" ref="Q32" si="131">Q30/Q31</f>
+      <c r="Q34" s="1">
+        <f t="shared" ref="Q34" si="133">Q32/Q33</f>
         <v>5.2305973836272637</v>
       </c>
-      <c r="R32" s="1">
-        <f t="shared" si="129"/>
+      <c r="R34" s="1">
+        <f t="shared" si="131"/>
         <v>5.1145879241956811</v>
       </c>
-      <c r="S32" s="1">
-        <f t="shared" ref="S32" si="132">S30/S31</f>
+      <c r="S34" s="1">
+        <f t="shared" ref="S34" si="134">S32/S33</f>
         <v>7.9106945975744214</v>
       </c>
-      <c r="T32" s="1">
-        <f t="shared" ref="T32" si="133">T30/T31</f>
+      <c r="T34" s="1">
+        <f t="shared" ref="T34" si="135">T32/T33</f>
         <v>8.9149865814979918</v>
       </c>
-      <c r="U32" s="1">
-        <f t="shared" ref="U32" si="134">U30/U31</f>
+      <c r="U34" s="1">
+        <f t="shared" ref="U34" si="136">U32/U33</f>
         <v>9.9049100199955582</v>
       </c>
-      <c r="V32" s="1">
-        <f t="shared" ref="V32" si="135">V30/V31</f>
+      <c r="V34" s="1">
+        <f t="shared" ref="V34" si="137">V32/V33</f>
         <v>16.842660448589829</v>
       </c>
-      <c r="W32" s="1">
-        <f t="shared" ref="W32" si="136">W30/W31</f>
+      <c r="W34" s="1">
+        <f t="shared" ref="W34" si="138">W32/W33</f>
         <v>25.555967774639306</v>
       </c>
-      <c r="X32" s="1">
-        <f t="shared" ref="X32" si="137">X30/X31</f>
+      <c r="X34" s="1">
+        <f t="shared" ref="X34" si="139">X32/X33</f>
         <v>45.246692212666304</v>
       </c>
-      <c r="Y32" s="1">
-        <f t="shared" ref="Y32" si="138">Y30/Y31</f>
+      <c r="Y34" s="1">
+        <f t="shared" ref="Y34" si="140">Y32/Y33</f>
         <v>51.126592525194802</v>
       </c>
-      <c r="Z32" s="1">
-        <f t="shared" ref="Z32" si="139">Z30/Z31</f>
+      <c r="Z34" s="1">
+        <f t="shared" ref="Z34" si="141">Z32/Z33</f>
         <v>57.641984110650135</v>
       </c>
-      <c r="AA32" s="1">
-        <f t="shared" ref="AA32:AB32" si="140">AA30/AA31</f>
+      <c r="AA34" s="1">
+        <f t="shared" ref="AA34:AB34" si="142">AA32/AA33</f>
         <v>64.858207476359922</v>
       </c>
-      <c r="AB32" s="1">
-        <f t="shared" si="140"/>
+      <c r="AB34" s="1">
+        <f t="shared" si="142"/>
         <v>68.636335199339243</v>
       </c>
-      <c r="AC32" s="1">
-        <f t="shared" ref="AC32" si="141">AC30/AC31</f>
+      <c r="AC34" s="1">
+        <f t="shared" ref="AC34" si="143">AC32/AC33</f>
         <v>72.589554971225525</v>
       </c>
-      <c r="AD32" s="1">
-        <f t="shared" ref="AD32" si="142">AD30/AD31</f>
+      <c r="AD34" s="1">
+        <f t="shared" ref="AD34" si="144">AD32/AD33</f>
         <v>76.725354526189264</v>
       </c>
-      <c r="AE32" s="1">
-        <f t="shared" ref="AE32" si="143">AE30/AE31</f>
+      <c r="AE34" s="1">
+        <f t="shared" ref="AE34" si="145">AE32/AE33</f>
         <v>81.051530865169354</v>
       </c>
-      <c r="AF32" s="1">
-        <f t="shared" ref="AF32" si="144">AF30/AF31</f>
+      <c r="AF34" s="1">
+        <f t="shared" ref="AF34" si="146">AF32/AF33</f>
         <v>85.576202822928863</v>
       </c>
-      <c r="AG32" s="1"/>
-      <c r="AH32" s="2" t="s">
+      <c r="AG34" s="1"/>
+      <c r="AH34" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="AI32" s="10">
+      <c r="AI34" s="10">
         <v>0.02</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="AH33" s="2" t="s">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AH35" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="AI33" s="10">
+      <c r="AI35" s="10">
         <v>-0.01</v>
       </c>
     </row>
-    <row r="34" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
-      <c r="B34" s="7" t="s">
+    <row r="36" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2"/>
+      <c r="B36" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K34" s="9">
-        <f>K20/G20-1</f>
+      <c r="K36" s="9">
+        <f>K22/G22-1</f>
         <v>0.45164233576642343</v>
       </c>
-      <c r="L34" s="9">
-        <f t="shared" ref="L34:M34" si="145">L20/H20-1</f>
+      <c r="L36" s="9">
+        <f t="shared" ref="L36:M36" si="147">L22/H22-1</f>
         <v>0.37636025833849418</v>
       </c>
-      <c r="M34" s="9">
-        <f t="shared" si="145"/>
+      <c r="M36" s="9">
+        <f t="shared" si="147"/>
         <v>0.41439636331847196</v>
       </c>
-      <c r="N34" s="9">
-        <f>N20/J20-1</f>
+      <c r="N36" s="9">
+        <f>N22/J22-1</f>
         <v>0.24336445725264166</v>
       </c>
-      <c r="O34" s="9"/>
-      <c r="Q34" s="9">
-        <f t="shared" ref="Q34:AB34" si="146">Q20/P20-1</f>
+      <c r="O36" s="9"/>
+      <c r="Q36" s="9">
+        <f t="shared" ref="Q36:AB36" si="148">Q22/P22-1</f>
         <v>3.8477643884055279E-2</v>
       </c>
-      <c r="R34" s="9">
-        <f t="shared" si="146"/>
+      <c r="R36" s="9">
+        <f t="shared" si="148"/>
         <v>9.9462365591397761E-2</v>
       </c>
-      <c r="S34" s="9">
-        <f t="shared" si="146"/>
+      <c r="S36" s="9">
+        <f t="shared" si="148"/>
         <v>0.15395273023634881</v>
       </c>
-      <c r="T34" s="9">
-        <f t="shared" si="146"/>
+      <c r="T36" s="9">
+        <f t="shared" si="148"/>
         <v>7.874849918779514E-3</v>
       </c>
-      <c r="U34" s="9">
-        <f t="shared" si="146"/>
+      <c r="U36" s="9">
+        <f t="shared" si="148"/>
         <v>0.1956623804351636</v>
       </c>
-      <c r="V34" s="9">
-        <f t="shared" si="146"/>
+      <c r="V36" s="9">
+        <f t="shared" si="148"/>
         <v>0.31991126843934414</v>
       </c>
-      <c r="W34" s="9">
-        <f t="shared" si="146"/>
+      <c r="W36" s="9">
+        <f t="shared" si="148"/>
         <v>0.36073111394793789</v>
       </c>
-      <c r="X34" s="9">
-        <f t="shared" si="146"/>
+      <c r="X36" s="9">
+        <f t="shared" si="148"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="Y34" s="9">
-        <f t="shared" si="146"/>
+      <c r="Y36" s="9">
+        <f t="shared" si="148"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="Z34" s="9">
-        <f t="shared" si="146"/>
+      <c r="Z36" s="9">
+        <f t="shared" si="148"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AA34" s="9">
-        <f t="shared" si="146"/>
+      <c r="AA36" s="9">
+        <f t="shared" si="148"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="AB34" s="9">
-        <f t="shared" si="146"/>
+      <c r="AB36" s="9">
+        <f t="shared" si="148"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="AC34" s="9">
-        <f t="shared" ref="AC34:AF34" si="147">AC20/AB20-1</f>
+      <c r="AC36" s="9">
+        <f t="shared" ref="AC36:AF36" si="149">AC22/AB22-1</f>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="AD34" s="9">
-        <f t="shared" si="147"/>
+      <c r="AD36" s="9">
+        <f t="shared" si="149"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="AE34" s="9">
-        <f t="shared" si="147"/>
+      <c r="AE36" s="9">
+        <f t="shared" si="149"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="AF34" s="9">
-        <f t="shared" si="147"/>
+      <c r="AF36" s="9">
+        <f t="shared" si="149"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="AG34" s="9"/>
-      <c r="AH34" s="2" t="s">
+      <c r="AG36" s="9"/>
+      <c r="AH36" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AI34" s="10">
+      <c r="AI36" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B35" s="2" t="s">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B37" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C35" s="10">
-        <f t="shared" ref="C35" si="148">C22/C20</f>
+      <c r="C37" s="10">
+        <f t="shared" ref="C37" si="150">C24/C22</f>
         <v>0.766235632183908</v>
       </c>
-      <c r="D35" s="10">
-        <f t="shared" ref="D35" si="149">D22/D20</f>
+      <c r="D37" s="10">
+        <f t="shared" ref="D37" si="151">D24/D22</f>
         <v>0.78260346487006738</v>
       </c>
-      <c r="E35" s="10">
-        <f t="shared" ref="E35" si="150">E22/E20</f>
+      <c r="E37" s="10">
+        <f t="shared" ref="E37" si="152">E24/E22</f>
         <v>0.80418991472786605</v>
       </c>
-      <c r="F35" s="10">
-        <f>F22/F20</f>
+      <c r="F37" s="10">
+        <f>F24/F22</f>
         <v>0.80883956636089549</v>
       </c>
-      <c r="G35" s="10">
-        <f>G22/G20</f>
+      <c r="G37" s="10">
+        <f>G24/G22</f>
         <v>0.80907846715328469</v>
       </c>
-      <c r="H35" s="10">
-        <f t="shared" ref="H35:N35" si="151">H22/H20</f>
+      <c r="H37" s="10">
+        <f t="shared" ref="H37:N37" si="153">H24/H22</f>
         <v>0.80801557108732192</v>
       </c>
-      <c r="I35" s="10">
-        <f t="shared" si="151"/>
+      <c r="I37" s="10">
+        <f t="shared" si="153"/>
         <v>0.81021068275198882</v>
       </c>
-      <c r="J35" s="10">
-        <f>J22/J20</f>
+      <c r="J37" s="10">
+        <f>J24/J22</f>
         <v>0.82236015665410478</v>
       </c>
-      <c r="K35" s="10">
-        <f t="shared" si="151"/>
+      <c r="K37" s="10">
+        <f t="shared" si="153"/>
         <v>0.82526712759270904</v>
       </c>
-      <c r="L35" s="10">
-        <f t="shared" si="151"/>
+      <c r="L37" s="10">
+        <f t="shared" si="153"/>
         <v>0.8426431831329948</v>
       </c>
-      <c r="M35" s="10">
-        <f t="shared" si="151"/>
+      <c r="M37" s="10">
+        <f t="shared" si="153"/>
         <v>0.84</v>
       </c>
-      <c r="N35" s="10">
-        <f t="shared" si="151"/>
+      <c r="N37" s="10">
+        <f t="shared" si="153"/>
         <v>0.84000000000000008</v>
       </c>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10">
-        <f t="shared" ref="P35" si="152">P22/P20</f>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10">
+        <f t="shared" ref="P37" si="154">P24/P22</f>
         <v>0.78216163402037875</v>
       </c>
-      <c r="Q35" s="10">
-        <f t="shared" ref="Q35" si="153">Q22/Q20</f>
+      <c r="Q37" s="10">
+        <f t="shared" ref="Q37" si="155">Q24/Q22</f>
         <v>0.78848566308243728</v>
       </c>
-      <c r="R35" s="10">
-        <f t="shared" ref="R35:W35" si="154">R22/R20</f>
+      <c r="R37" s="10">
+        <f t="shared" ref="R37:W37" si="156">R24/R22</f>
         <v>0.7765688671556642</v>
       </c>
-      <c r="S35" s="10">
-        <f t="shared" si="154"/>
+      <c r="S37" s="10">
+        <f t="shared" si="156"/>
         <v>0.74175436118369942</v>
       </c>
-      <c r="T35" s="10">
-        <f t="shared" si="154"/>
+      <c r="T37" s="10">
+        <f t="shared" si="156"/>
         <v>0.76770260327248518</v>
       </c>
-      <c r="U35" s="10">
-        <f t="shared" si="154"/>
+      <c r="U37" s="10">
+        <f t="shared" si="156"/>
         <v>0.79247129703974162</v>
       </c>
-      <c r="V35" s="10">
-        <f t="shared" si="154"/>
+      <c r="V37" s="10">
+        <f t="shared" si="156"/>
         <v>0.8131098407059999</v>
       </c>
-      <c r="W35" s="10">
-        <f t="shared" si="154"/>
+      <c r="W37" s="10">
+        <f t="shared" si="156"/>
         <v>0.83761138434582749</v>
       </c>
-      <c r="X35" s="10">
-        <f t="shared" ref="X35:AB35" si="155">X22/X20</f>
+      <c r="X37" s="10">
+        <f t="shared" ref="X37:AB37" si="157">X24/X22</f>
         <v>0.84000000000000008</v>
       </c>
-      <c r="Y35" s="10">
-        <f t="shared" si="155"/>
+      <c r="Y37" s="10">
+        <f t="shared" si="157"/>
         <v>0.84000000000000008</v>
       </c>
-      <c r="Z35" s="10">
-        <f t="shared" si="155"/>
+      <c r="Z37" s="10">
+        <f t="shared" si="157"/>
         <v>0.84000000000000008</v>
       </c>
-      <c r="AA35" s="10">
-        <f t="shared" si="155"/>
+      <c r="AA37" s="10">
+        <f t="shared" si="157"/>
         <v>0.84000000000000008</v>
       </c>
-      <c r="AB35" s="10">
-        <f t="shared" si="155"/>
+      <c r="AB37" s="10">
+        <f t="shared" si="157"/>
         <v>0.84000000000000008</v>
       </c>
-      <c r="AC35" s="10">
-        <f t="shared" ref="AC35:AF35" si="156">AC22/AC20</f>
+      <c r="AC37" s="10">
+        <f t="shared" ref="AC37:AF37" si="158">AC24/AC22</f>
         <v>0.84</v>
       </c>
-      <c r="AD35" s="10">
-        <f t="shared" si="156"/>
+      <c r="AD37" s="10">
+        <f t="shared" si="158"/>
         <v>0.84000000000000008</v>
       </c>
-      <c r="AE35" s="10">
-        <f t="shared" si="156"/>
+      <c r="AE37" s="10">
+        <f t="shared" si="158"/>
         <v>0.84000000000000008</v>
       </c>
-      <c r="AF35" s="10">
-        <f t="shared" si="156"/>
+      <c r="AF37" s="10">
+        <f t="shared" si="158"/>
         <v>0.84</v>
       </c>
-      <c r="AG35" s="10"/>
-      <c r="AH35" s="2" t="s">
+      <c r="AG37" s="10"/>
+      <c r="AH37" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="AI35" s="2">
-        <f>NPV(AI34,W30:XFD30)+Main!L5-Main!L6</f>
+      <c r="AI37" s="2">
+        <f>NPV(AI36,W32:XFD32)+Main!L5-Main!L6</f>
         <v>815642.43678764242</v>
-      </c>
-    </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B36" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G36" s="10"/>
-      <c r="K36" s="10">
-        <f>K24/G24-1</f>
-        <v>0.26485655737704916</v>
-      </c>
-      <c r="L36" s="10">
-        <f t="shared" ref="L36:N36" si="157">L24/H24-1</f>
-        <v>0.30042512990080295</v>
-      </c>
-      <c r="M36" s="10">
-        <f t="shared" si="157"/>
-        <v>0.31095238095238087</v>
-      </c>
-      <c r="N36" s="10">
-        <f t="shared" si="157"/>
-        <v>0.13549185399051344</v>
-      </c>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="10">
-        <f t="shared" ref="Q36:X36" si="158">Q24/P24-1</f>
-        <v>4.0000000000000036E-2</v>
-      </c>
-      <c r="R36" s="10">
-        <f t="shared" si="158"/>
-        <v>-1.4966205342774375E-2</v>
-      </c>
-      <c r="S36" s="10">
-        <f t="shared" si="158"/>
-        <v>5.0808691390295646E-2</v>
-      </c>
-      <c r="T36" s="10">
-        <f t="shared" si="158"/>
-        <v>1.2437810945273853E-3</v>
-      </c>
-      <c r="U36" s="10">
-        <f t="shared" si="158"/>
-        <v>0.14953416149068333</v>
-      </c>
-      <c r="V36" s="10">
-        <f t="shared" si="158"/>
-        <v>0.16088072403079834</v>
-      </c>
-      <c r="W36" s="10">
-        <f t="shared" si="158"/>
-        <v>0.24831277635559701</v>
-      </c>
-      <c r="X36" s="10">
-        <f t="shared" si="158"/>
-        <v>0.10000000000000009</v>
-      </c>
-      <c r="Y36" s="10">
-        <f t="shared" ref="Y36:AB36" si="159">Y24/X24-1</f>
-        <v>4.0000000000000036E-2</v>
-      </c>
-      <c r="Z36" s="10">
-        <f t="shared" si="159"/>
-        <v>4.0000000000000036E-2</v>
-      </c>
-      <c r="AA36" s="10">
-        <f t="shared" si="159"/>
-        <v>4.0000000000000036E-2</v>
-      </c>
-      <c r="AB36" s="10">
-        <f t="shared" si="159"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AC36" s="10">
-        <f t="shared" ref="AC36:AF36" si="160">AC24/AB24-1</f>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AD36" s="10">
-        <f t="shared" si="160"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AE36" s="10">
-        <f t="shared" si="160"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AF36" s="10">
-        <f t="shared" si="160"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="AG36" s="10"/>
-      <c r="AH36" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="AI36" s="1">
-        <f>AI35/Main!L3</f>
-        <v>908.28779152298716</v>
-      </c>
-    </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="AI37" s="10">
-        <f>AI36/Main!L2-1</f>
-        <v>0.29755398788998155</v>
       </c>
     </row>
     <row r="38" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G38" s="10"/>
+      <c r="K38" s="10">
+        <f>K26/G26-1</f>
+        <v>0.26485655737704916</v>
+      </c>
+      <c r="L38" s="10">
+        <f t="shared" ref="L38:N38" si="159">L26/H26-1</f>
+        <v>0.30042512990080295</v>
+      </c>
+      <c r="M38" s="10">
+        <f t="shared" si="159"/>
+        <v>0.31095238095238087</v>
+      </c>
+      <c r="N38" s="10">
+        <f t="shared" si="159"/>
+        <v>0.13549185399051344</v>
+      </c>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10">
+        <f t="shared" ref="Q38:X38" si="160">Q26/P26-1</f>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="R38" s="10">
+        <f t="shared" si="160"/>
+        <v>-1.4966205342774375E-2</v>
+      </c>
+      <c r="S38" s="10">
+        <f t="shared" si="160"/>
+        <v>5.0808691390295646E-2</v>
+      </c>
+      <c r="T38" s="10">
+        <f t="shared" si="160"/>
+        <v>1.2437810945273853E-3</v>
+      </c>
+      <c r="U38" s="10">
+        <f t="shared" si="160"/>
+        <v>0.14953416149068333</v>
+      </c>
+      <c r="V38" s="10">
+        <f t="shared" si="160"/>
+        <v>0.16088072403079834</v>
+      </c>
+      <c r="W38" s="10">
+        <f t="shared" si="160"/>
+        <v>0.24831277635559701</v>
+      </c>
+      <c r="X38" s="10">
+        <f t="shared" si="160"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="Y38" s="10">
+        <f t="shared" ref="Y38:AB38" si="161">Y26/X26-1</f>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="Z38" s="10">
+        <f t="shared" si="161"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="AA38" s="10">
+        <f t="shared" si="161"/>
+        <v>4.0000000000000036E-2</v>
+      </c>
+      <c r="AB38" s="10">
+        <f t="shared" si="161"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="AC38" s="10">
+        <f t="shared" ref="AC38:AF38" si="162">AC26/AB26-1</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="AD38" s="10">
+        <f t="shared" si="162"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="AE38" s="10">
+        <f t="shared" si="162"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="AF38" s="10">
+        <f t="shared" si="162"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="AG38" s="10"/>
+      <c r="AH38" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI38" s="1">
+        <f>AI37/Main!L3</f>
+        <v>908.28779152298716</v>
+      </c>
+    </row>
+    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="AI39" s="10">
+        <f>AI38/Main!L2-1</f>
+        <v>0.29755398788998155</v>
+      </c>
+    </row>
+    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B40" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="2">
-        <f t="shared" ref="C38:J38" si="161">C39-SUM(C60:C62)</f>
+      <c r="C40" s="2">
+        <f t="shared" ref="C40:J40" si="163">C41-SUM(C62:C64)</f>
         <v>0</v>
       </c>
-      <c r="D38" s="2">
-        <f t="shared" si="161"/>
-        <v>0</v>
-      </c>
-      <c r="E38" s="2">
-        <f t="shared" si="161"/>
-        <v>0</v>
-      </c>
-      <c r="F38" s="2">
-        <f t="shared" si="161"/>
-        <v>0</v>
-      </c>
-      <c r="G38" s="2">
-        <f t="shared" si="161"/>
-        <v>0</v>
-      </c>
-      <c r="H38" s="2">
-        <f t="shared" si="161"/>
-        <v>0</v>
-      </c>
-      <c r="I38" s="2">
-        <f t="shared" si="161"/>
-        <v>0</v>
-      </c>
-      <c r="J38" s="2">
-        <f t="shared" si="161"/>
-        <v>0</v>
-      </c>
-      <c r="K38" s="2">
-        <f>K39-SUM(K60:K61)</f>
-        <v>-3466</v>
-      </c>
-      <c r="L38" s="2">
-        <f>L39-SUM(L60:L61)</f>
-        <v>-3483</v>
-      </c>
-      <c r="M38" s="2">
-        <f t="shared" ref="M38:N38" si="162">L38+M30</f>
-        <v>2579.1859619999996</v>
-      </c>
-      <c r="N38" s="2">
-        <f t="shared" si="162"/>
-        <v>9106.2590616261004</v>
-      </c>
-      <c r="P38" s="2">
-        <f t="shared" ref="P38:V38" si="163">P39-SUM(P60:P62)</f>
-        <v>0</v>
-      </c>
-      <c r="Q38" s="2">
+      <c r="D40" s="2">
         <f t="shared" si="163"/>
         <v>0</v>
       </c>
-      <c r="R38" s="2">
+      <c r="E40" s="2">
         <f t="shared" si="163"/>
         <v>0</v>
       </c>
-      <c r="S38" s="2">
+      <c r="F40" s="2">
         <f t="shared" si="163"/>
         <v>0</v>
       </c>
-      <c r="T38" s="2">
+      <c r="G40" s="2">
         <f t="shared" si="163"/>
         <v>0</v>
       </c>
-      <c r="U38" s="2">
+      <c r="H40" s="2">
         <f t="shared" si="163"/>
         <v>0</v>
       </c>
-      <c r="V38" s="2">
+      <c r="I40" s="2">
         <f t="shared" si="163"/>
         <v>0</v>
       </c>
-      <c r="W38" s="2">
-        <f>N38</f>
+      <c r="J40" s="2">
+        <f t="shared" si="163"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="2">
+        <f>K41-SUM(K62:K63)</f>
+        <v>-3466</v>
+      </c>
+      <c r="L40" s="2">
+        <f>L41-SUM(L62:L63)</f>
+        <v>-3483</v>
+      </c>
+      <c r="M40" s="2">
+        <f t="shared" ref="M40:N40" si="164">L40+M32</f>
+        <v>2579.1859619999996</v>
+      </c>
+      <c r="N40" s="2">
+        <f t="shared" si="164"/>
         <v>9106.2590616261004</v>
       </c>
-      <c r="X38" s="2">
-        <f>W38+X30</f>
+      <c r="P40" s="2">
+        <f t="shared" ref="P40:V40" si="165">P41-SUM(P62:P64)</f>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="2">
+        <f t="shared" si="165"/>
+        <v>0</v>
+      </c>
+      <c r="R40" s="2">
+        <f t="shared" si="165"/>
+        <v>0</v>
+      </c>
+      <c r="S40" s="2">
+        <f t="shared" si="165"/>
+        <v>0</v>
+      </c>
+      <c r="T40" s="2">
+        <f t="shared" si="165"/>
+        <v>0</v>
+      </c>
+      <c r="U40" s="2">
+        <f t="shared" si="165"/>
+        <v>0</v>
+      </c>
+      <c r="V40" s="2">
+        <f t="shared" si="165"/>
+        <v>0</v>
+      </c>
+      <c r="W40" s="2">
+        <f>N40</f>
+        <v>9106.2590616261004</v>
+      </c>
+      <c r="X40" s="2">
+        <f>W40+X32</f>
         <v>49737.788668600442</v>
       </c>
-      <c r="Y38" s="2">
-        <f t="shared" ref="Y38:AB38" si="164">X38+Y30</f>
+      <c r="Y40" s="2">
+        <f t="shared" ref="Y40:AB40" si="166">X40+Y32</f>
         <v>95649.468756225368</v>
       </c>
-      <c r="Z38" s="2">
-        <f t="shared" si="164"/>
+      <c r="Z40" s="2">
+        <f t="shared" si="166"/>
         <v>147411.97048758919</v>
       </c>
-      <c r="AA38" s="2">
-        <f t="shared" si="164"/>
+      <c r="AA40" s="2">
+        <f t="shared" si="166"/>
         <v>205654.64080136039</v>
       </c>
-      <c r="AB38" s="2">
-        <f t="shared" si="164"/>
+      <c r="AB40" s="2">
+        <f t="shared" si="166"/>
         <v>267290.06981036701</v>
       </c>
-      <c r="AC38" s="2">
-        <f t="shared" ref="AC38:AF38" si="165">AB38+AC30</f>
+      <c r="AC40" s="2">
+        <f t="shared" ref="AC40:AF40" si="167">AB40+AC32</f>
         <v>332475.49017452751</v>
       </c>
-      <c r="AD38" s="2">
-        <f t="shared" si="165"/>
+      <c r="AD40" s="2">
+        <f t="shared" si="167"/>
         <v>401374.85853904544</v>
       </c>
-      <c r="AE38" s="2">
-        <f t="shared" si="165"/>
+      <c r="AE40" s="2">
+        <f t="shared" si="167"/>
         <v>474159.13325596752</v>
       </c>
-      <c r="AF38" s="2">
-        <f t="shared" si="165"/>
+      <c r="AF40" s="2">
+        <f t="shared" si="167"/>
         <v>551006.56339095766</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B39" s="2" t="s">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B41" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K39" s="2">
+      <c r="K41" s="2">
         <f>3093+128</f>
         <v>3221</v>
       </c>
-      <c r="L39" s="2">
+      <c r="L41" s="2">
         <f>3376+170</f>
         <v>3546</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B40" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="K40" s="2">
-        <v>12037</v>
-      </c>
-      <c r="L40" s="2">
-        <v>14170</v>
-      </c>
-      <c r="AD40" s="10"/>
-    </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="B41" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="K41" s="2">
-        <v>1966.6</v>
-      </c>
-      <c r="L41" s="2">
-        <v>3035</v>
-      </c>
-      <c r="AH41" s="26"/>
-    </row>
     <row r="42" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
-        <v>55</v>
+        <v>339</v>
       </c>
       <c r="K42" s="2">
-        <v>9311</v>
+        <v>12037</v>
       </c>
       <c r="L42" s="2">
-        <v>11014</v>
-      </c>
-      <c r="AH42" s="26"/>
+        <v>14170</v>
+      </c>
+      <c r="AD42" s="10"/>
     </row>
     <row r="43" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K43" s="2">
-        <v>14654</v>
+        <v>1966.6</v>
       </c>
       <c r="L43" s="2">
-        <v>18020</v>
-      </c>
-      <c r="AH43" s="10"/>
+        <v>3035</v>
+      </c>
+      <c r="AH43" s="26"/>
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K44" s="2">
-        <v>72</v>
+        <v>9311</v>
       </c>
       <c r="L44" s="2">
-        <v>69</v>
-      </c>
+        <v>11014</v>
+      </c>
+      <c r="AH44" s="26"/>
     </row>
     <row r="45" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K45" s="2">
-        <v>3223</v>
+        <v>14654</v>
       </c>
       <c r="L45" s="2">
-        <v>3207</v>
-      </c>
+        <v>18020</v>
+      </c>
+      <c r="AH45" s="10"/>
     </row>
     <row r="46" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B46" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K46" s="2">
-        <v>5771</v>
+        <v>72</v>
       </c>
       <c r="L46" s="2">
-        <v>5771</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B47" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K47" s="2">
-        <v>6012</v>
+        <v>3223</v>
       </c>
       <c r="L47" s="2">
-        <v>5908</v>
+        <v>3207</v>
       </c>
     </row>
     <row r="48" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="K48" s="2">
-        <v>8573</v>
+        <v>5771</v>
       </c>
       <c r="L48" s="2">
-        <v>9427</v>
+        <v>5771</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K49" s="2">
-        <v>18474</v>
+        <v>6012</v>
       </c>
       <c r="L49" s="2">
-        <v>20530</v>
+        <v>5908</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="K50" s="2">
-        <v>6075</v>
+        <v>8573</v>
       </c>
       <c r="L50" s="2">
-        <v>6225</v>
+        <v>9427</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K51" s="2">
-        <f>SUM(K39:K50)</f>
-        <v>89389.6</v>
+        <v>18474</v>
       </c>
       <c r="L51" s="2">
-        <f>SUM(L39:L50)</f>
-        <v>100922</v>
+        <v>20530</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B52" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K52" s="2">
+        <v>6075</v>
+      </c>
+      <c r="L52" s="2">
+        <v>6225</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K53" s="2">
+        <f>SUM(K41:K52)</f>
+        <v>89389.6</v>
+      </c>
+      <c r="L53" s="2">
+        <f>SUM(L41:L52)</f>
+        <v>100922</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B55" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K53" s="2">
+      <c r="K55" s="2">
         <f>4016+34449</f>
         <v>38465</v>
       </c>
-      <c r="L53" s="2">
+      <c r="L55" s="2">
         <f>5724+6958+34180</f>
         <v>46862</v>
       </c>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B54" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K54" s="2">
-        <v>3442</v>
-      </c>
-      <c r="L54" s="2">
-        <v>4076</v>
-      </c>
-    </row>
-    <row r="55" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B55" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="K55" s="2">
-        <v>1114</v>
-      </c>
-      <c r="L55" s="2">
-        <v>1303</v>
-      </c>
-    </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B56" s="2" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="K56" s="2">
-        <v>11550</v>
+        <v>3442</v>
       </c>
       <c r="L56" s="2">
-        <v>14537</v>
+        <v>4076</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B57" s="2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="K57" s="2">
-        <v>0</v>
+        <v>1114</v>
       </c>
       <c r="L57" s="2">
-        <v>1345</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K58" s="2">
-        <v>6176</v>
+        <v>11550</v>
       </c>
       <c r="L58" s="2">
-        <v>6958</v>
+        <v>14537</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B59" s="2" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="K59" s="2">
-        <v>3770</v>
+        <v>0</v>
       </c>
       <c r="L59" s="2">
-        <v>5077</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B60" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K60" s="2">
-        <v>1316</v>
+        <v>6176</v>
       </c>
       <c r="L60" s="2">
-        <v>1345</v>
+        <v>6958</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B61" s="2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="K61" s="2">
-        <v>5371</v>
+        <v>3770</v>
       </c>
       <c r="L61" s="2">
-        <v>5684</v>
+        <v>5077</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B62" s="2" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="K62" s="2">
-        <v>2288</v>
+        <v>1316</v>
       </c>
       <c r="L62" s="2">
-        <v>2345</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B63" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="K63" s="2">
-        <f>SUM(K53:K62)</f>
-        <v>73492</v>
+        <v>5371</v>
       </c>
       <c r="L63" s="2">
-        <f>SUM(L53:L62)</f>
-        <v>89532</v>
+        <v>5684</v>
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B64" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K64" s="2">
-        <f>K51-K63</f>
-        <v>15897.600000000006</v>
+        <v>2288</v>
       </c>
       <c r="L64" s="2">
-        <f>L51-L63</f>
-        <v>11390</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B65" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K65" s="2">
-        <f>K64+K63</f>
-        <v>89389.6</v>
+        <f>SUM(K55:K64)</f>
+        <v>73492</v>
       </c>
       <c r="L65" s="2">
-        <f>L64+L63</f>
-        <v>100922</v>
+        <f>SUM(L55:L64)</f>
+        <v>89532</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B66" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K66" s="2">
+        <f>K53-K65</f>
+        <v>15897.600000000006</v>
+      </c>
+      <c r="L66" s="2">
+        <f>L53-L65</f>
+        <v>11390</v>
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B67" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G67" s="2">
-        <f t="shared" ref="G67:L67" si="166">G30</f>
-        <v>2353</v>
-      </c>
-      <c r="H67" s="2">
-        <f t="shared" si="166"/>
-        <v>3955</v>
-      </c>
-      <c r="I67" s="2">
-        <f t="shared" si="166"/>
-        <v>3754</v>
-      </c>
-      <c r="J67" s="2">
-        <f t="shared" si="166"/>
-        <v>4942.6000000000004</v>
+        <v>70</v>
       </c>
       <c r="K67" s="2">
-        <f t="shared" si="166"/>
-        <v>4365</v>
+        <f>K66+K65</f>
+        <v>89389.6</v>
       </c>
       <c r="L67" s="2">
-        <f t="shared" si="166"/>
-        <v>5995</v>
-      </c>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B68" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G68" s="2">
-        <v>2243</v>
-      </c>
-      <c r="K68" s="2">
-        <v>2759</v>
+        <f>L66+L65</f>
+        <v>100922</v>
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B69" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
+      </c>
+      <c r="G69" s="2">
+        <f t="shared" ref="G69:L69" si="168">G32</f>
+        <v>2353</v>
+      </c>
+      <c r="H69" s="2">
+        <f t="shared" si="168"/>
+        <v>3955</v>
+      </c>
+      <c r="I69" s="2">
+        <f t="shared" si="168"/>
+        <v>3754</v>
+      </c>
+      <c r="J69" s="2">
+        <f t="shared" si="168"/>
+        <v>4942.6000000000004</v>
       </c>
       <c r="K69" s="2">
-        <v>463</v>
+        <f t="shared" si="168"/>
+        <v>4365</v>
+      </c>
+      <c r="L69" s="2">
+        <f t="shared" si="168"/>
+        <v>5995</v>
       </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B70" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
+      </c>
+      <c r="G70" s="2">
+        <v>2243</v>
       </c>
       <c r="K70" s="2">
-        <v>-392</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B71" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K71" s="2">
-        <v>154</v>
+        <v>463</v>
       </c>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B72" s="2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="K72" s="2">
-        <v>149</v>
+        <v>-392</v>
       </c>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B73" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K73" s="2">
-        <v>1572</v>
+        <v>154</v>
       </c>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B74" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K74" s="2">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B75" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K75" s="2">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B76" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="K74" s="2">
+      <c r="K76" s="2">
         <f>-3364+325</f>
         <v>-3039</v>
       </c>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B75" s="2" t="s">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B77" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="K75" s="2">
-        <f>SUM(K39:K44)-SUM(K54:K59)</f>
+      <c r="K77" s="2">
+        <f>SUM(K41:K46)-SUM(K56:K61)</f>
         <v>15209.599999999999</v>
       </c>
-      <c r="L75" s="2">
-        <f>SUM(L39:L44)-SUM(L54:L59)</f>
+      <c r="L77" s="2">
+        <f>SUM(L41:L46)-SUM(L56:L61)</f>
         <v>16558</v>
-      </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B76" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K76" s="2">
-        <f>SUM(K68:K74)</f>
-        <v>1666</v>
       </c>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B78" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K78" s="2">
+        <f>SUM(K70:K76)</f>
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B80" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="K78" s="2">
+      <c r="K80" s="2">
         <v>-1510</v>
       </c>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B79" s="2" t="s">
+    <row r="81" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B81" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="K79" s="2">
+      <c r="K81" s="2">
         <f>72-197</f>
         <v>-125</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B80" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="K80" s="2">
-        <v>-1757</v>
-      </c>
-    </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B81" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="K81" s="2">
-        <v>39</v>
-      </c>
-    </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B82" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K82" s="2">
-        <f>SUM(K78:K81)</f>
-        <v>-3353</v>
+        <v>-1757</v>
+      </c>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B83" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K83" s="2">
+        <v>39</v>
       </c>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B84" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="K84" s="2">
+        <f>SUM(K80:K83)</f>
+        <v>-3353</v>
+      </c>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B86" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="K84" s="2">
+      <c r="K86" s="2">
         <v>-1346</v>
       </c>
     </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B85" s="2" t="s">
+    <row r="87" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B87" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="K85" s="2">
+      <c r="K87" s="2">
         <f>-1849+6461</f>
         <v>4612</v>
       </c>
     </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B86" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="K86" s="2">
-        <v>-1200</v>
-      </c>
-    </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B87" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="K87" s="2">
-        <v>-686</v>
-      </c>
-    </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B88" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K88" s="2">
-        <f>SUM(K84:K87)</f>
-        <v>1380</v>
+        <v>-1200</v>
       </c>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B89" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G89" s="2">
-        <v>-36</v>
+        <v>82</v>
       </c>
       <c r="K89" s="2">
-        <v>132</v>
+        <v>-686</v>
       </c>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B90" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K90" s="2">
-        <f>K76+K82+K88+K89</f>
-        <v>-175</v>
+        <f>SUM(K86:K89)</f>
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="91" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B91" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G91" s="2">
+        <v>-36</v>
+      </c>
+      <c r="K91" s="2">
+        <v>132</v>
       </c>
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B92" s="2" t="s">
-        <v>355</v>
+        <v>92</v>
       </c>
       <c r="K92" s="2">
-        <v>8489</v>
-      </c>
-      <c r="L92" s="2">
-        <v>10814</v>
-      </c>
-    </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B93" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="K93" s="2">
-        <v>2389</v>
-      </c>
-      <c r="L93" s="2">
-        <v>2574</v>
+        <f>K78+K84+K90+K91</f>
+        <v>-175</v>
       </c>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B94" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K94" s="2">
-        <v>451</v>
+        <v>8489</v>
       </c>
       <c r="L94" s="2">
-        <v>466</v>
+        <v>10814</v>
       </c>
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B95" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="K95" s="2">
-        <v>402</v>
+        <v>2389</v>
       </c>
       <c r="L95" s="2">
-        <v>521</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B96" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="K96" s="2">
+        <v>451</v>
+      </c>
+      <c r="L96" s="2">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="97" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B97" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="K97" s="2">
+        <v>402</v>
+      </c>
+      <c r="L97" s="2">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="98" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B98" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="K96" s="2">
+      <c r="K98" s="2">
         <v>997</v>
       </c>
-      <c r="L96" s="2">
+      <c r="L98" s="2">
         <v>1182</v>
       </c>
     </row>
-    <row r="98" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L98" s="10"/>
-    </row>
-    <row r="99" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L99" s="10"/>
-    </row>
-    <row r="100" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L100" s="10"/>
     </row>
-    <row r="101" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L101" s="10"/>
     </row>
-    <row r="102" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:12" x14ac:dyDescent="0.2">
       <c r="L102" s="10"/>
+    </row>
+    <row r="103" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L103" s="10"/>
+    </row>
+    <row r="104" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L104" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
